--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,16 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$90</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$90</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$90</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$94</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$90</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$90</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$94</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -162,7 +165,7 @@
   <si>
     <t xml:space="preserve">1
 23
-28
+29
 36
 43</t>
   </si>
@@ -197,10 +200,9 @@
     <t xml:space="preserve">Холодильник: Качество</t>
   </si>
   <si>
-    <t xml:space="preserve">145
-146
-147
-155</t>
+    <t xml:space="preserve">65
+66
+67</t>
   </si>
   <si>
     <t xml:space="preserve">Activations</t>
@@ -1151,7 +1153,7 @@
     <t xml:space="preserve">COOLER_QUALITY</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
   </si>
   <si>
     <t xml:space="preserve">sum of KPI scores</t>
@@ -1227,15 +1229,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1265,6 +1268,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1279,7 +1288,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,14 +1303,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF579D1C"/>
+        <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF3300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
@@ -1340,18 +1379,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1360,27 +1399,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1388,20 +1427,36 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1412,11 +1467,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1424,28 +1475,36 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1477,7 +1536,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1502,14 +1561,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1530,55 +1589,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AM94"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AE68" activeCellId="0" sqref="AE68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.3562753036437"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.0728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.3562753036437"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.73279352226721"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="77.5101214574899"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.3076923076923"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="28.5222672064777"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1745,18 +1803,18 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="11"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AM2" s="8"/>
@@ -1806,21 +1864,21 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="11"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AJ3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AM3" s="11"/>
+      <c r="AM3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
@@ -1867,21 +1925,21 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="11"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AJ4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AM4" s="11"/>
+      <c r="AM4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
@@ -1928,21 +1986,21 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="11"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AJ5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="AL5" s="11" t="n">
-        <v>142</v>
-      </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AL5" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="AM5" s="12" t="n">
         <v>310</v>
       </c>
     </row>
@@ -1991,21 +2049,21 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="11"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AJ6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="AL6" s="12" t="s">
+      <c r="AL6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="12" t="n">
         <v>310</v>
       </c>
     </row>
@@ -2054,21 +2112,21 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="11"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AJ7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AL7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AM7" s="11"/>
+      <c r="AM7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
@@ -2115,8 +2173,8 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="11"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
@@ -2126,7 +2184,7 @@
       <c r="AK8" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="AL8" s="13" t="s">
+      <c r="AL8" s="17" t="s">
         <v>60</v>
       </c>
       <c r="AM8" s="8"/>
@@ -2155,10 +2213,10 @@
         <v>41</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -2176,18 +2234,18 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
+      <c r="AE9" s="10"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AJ9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="AL9" s="13" t="s">
+      <c r="AL9" s="17" t="s">
         <v>63</v>
       </c>
       <c r="AM9" s="8" t="n">
@@ -2224,9 +2282,9 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -2256,7 +2314,7 @@
       <c r="AK10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AL10" s="13" t="s">
+      <c r="AL10" s="17" t="s">
         <v>69</v>
       </c>
       <c r="AM10" s="8" t="n">
@@ -2282,7 +2340,7 @@
       <c r="F11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="18" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -2297,11 +2355,11 @@
       <c r="M11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="8" t="s">
         <v>74</v>
       </c>
@@ -2328,7 +2386,7 @@
       <c r="AD11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="15" t="n">
+      <c r="AE11" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF11" s="8"/>
@@ -2365,7 +2423,7 @@
       <c r="F12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="19" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -2380,11 +2438,11 @@
       <c r="M12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="8" t="s">
         <v>74</v>
       </c>
@@ -2411,7 +2469,7 @@
       <c r="AD12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE12" s="15" t="n">
+      <c r="AE12" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF12" s="8"/>
@@ -2448,7 +2506,7 @@
       <c r="F13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="18" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -2463,11 +2521,11 @@
       <c r="M13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="8" t="s">
         <v>74</v>
       </c>
@@ -2494,7 +2552,7 @@
       <c r="AD13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE13" s="15" t="n">
+      <c r="AE13" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF13" s="8"/>
@@ -2531,7 +2589,7 @@
       <c r="F14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="18" t="s">
         <v>86</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -2546,11 +2604,11 @@
       <c r="M14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="8" t="s">
         <v>74</v>
       </c>
@@ -2577,7 +2635,7 @@
       <c r="AD14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE14" s="15" t="n">
+      <c r="AE14" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF14" s="8"/>
@@ -2614,7 +2672,7 @@
       <c r="F15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="18" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -2629,11 +2687,11 @@
       <c r="M15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="8" t="s">
         <v>74</v>
       </c>
@@ -2660,7 +2718,7 @@
       <c r="AD15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE15" s="15" t="n">
+      <c r="AE15" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF15" s="8"/>
@@ -2697,7 +2755,7 @@
       <c r="F16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -2712,7 +2770,7 @@
       <c r="M16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="12" t="s">
         <v>93</v>
       </c>
       <c r="O16" s="8"/>
@@ -2743,7 +2801,7 @@
       <c r="AD16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE16" s="15" t="n">
+      <c r="AE16" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF16" s="8"/>
@@ -2780,7 +2838,7 @@
       <c r="F17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="18" t="s">
         <v>95</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -2795,7 +2853,7 @@
       <c r="M17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O17" s="8"/>
@@ -2826,7 +2884,7 @@
       <c r="AD17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE17" s="15" t="n">
+      <c r="AE17" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF17" s="8"/>
@@ -2860,10 +2918,10 @@
       <c r="E18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="21" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -2875,14 +2933,14 @@
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
       <c r="Q18" s="8" t="s">
         <v>74</v>
       </c>
@@ -2909,7 +2967,7 @@
       <c r="AD18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE18" s="15" t="n">
+      <c r="AE18" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF18" s="8"/>
@@ -2946,7 +3004,7 @@
       <c r="F19" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="18" t="s">
         <v>101</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -2992,7 +3050,7 @@
       <c r="AD19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE19" s="15" t="n">
+      <c r="AE19" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF19" s="8"/>
@@ -3029,7 +3087,7 @@
       <c r="F20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3044,11 +3102,11 @@
       <c r="M20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
       <c r="Q20" s="8" t="s">
         <v>74</v>
       </c>
@@ -3075,7 +3133,7 @@
       <c r="AD20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE20" s="15" t="n">
+      <c r="AE20" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF20" s="8"/>
@@ -3112,7 +3170,7 @@
       <c r="F21" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="12" t="s">
         <v>108</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3130,8 +3188,8 @@
       <c r="N21" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
       <c r="Q21" s="8" t="s">
         <v>74</v>
       </c>
@@ -3158,7 +3216,7 @@
       <c r="AD21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE21" s="15" t="n">
+      <c r="AE21" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF21" s="8"/>
@@ -3195,7 +3253,7 @@
       <c r="F22" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="18" t="s">
         <v>111</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3210,7 +3268,7 @@
       <c r="M22" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="12" t="s">
         <v>112</v>
       </c>
       <c r="O22" s="8"/>
@@ -3241,8 +3299,8 @@
       <c r="AD22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE22" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE22" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
@@ -3278,7 +3336,7 @@
       <c r="F23" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3293,7 +3351,7 @@
       <c r="M23" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="12" t="s">
         <v>115</v>
       </c>
       <c r="O23" s="8"/>
@@ -3324,8 +3382,8 @@
       <c r="AD23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE23" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
@@ -3361,7 +3419,7 @@
       <c r="F24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>117</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -3376,11 +3434,11 @@
       <c r="M24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="8" t="s">
         <v>74</v>
       </c>
@@ -3407,8 +3465,8 @@
       <c r="AD24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE24" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE24" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
@@ -3444,7 +3502,7 @@
       <c r="F25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>120</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -3459,11 +3517,11 @@
       <c r="M25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="8" t="s">
         <v>74</v>
       </c>
@@ -3490,8 +3548,8 @@
       <c r="AD25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE25" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE25" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
@@ -3527,7 +3585,7 @@
       <c r="F26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="22" t="s">
         <v>123</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -3542,11 +3600,11 @@
       <c r="M26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
       <c r="Q26" s="8" t="s">
         <v>74</v>
       </c>
@@ -3573,8 +3631,8 @@
       <c r="AD26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE26" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE26" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
@@ -3610,7 +3668,7 @@
       <c r="F27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>126</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -3625,11 +3683,11 @@
       <c r="M27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
       <c r="Q27" s="8" t="s">
         <v>74</v>
       </c>
@@ -3656,8 +3714,8 @@
       <c r="AD27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE27" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE27" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
@@ -3693,7 +3751,7 @@
       <c r="F28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="22" t="s">
         <v>129</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -3708,11 +3766,11 @@
       <c r="M28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
       <c r="Q28" s="8" t="s">
         <v>74</v>
       </c>
@@ -3739,8 +3797,8 @@
       <c r="AD28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE28" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
@@ -3776,7 +3834,7 @@
       <c r="F29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -3791,7 +3849,7 @@
       <c r="M29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="12" t="s">
         <v>133</v>
       </c>
       <c r="O29" s="8"/>
@@ -3822,8 +3880,8 @@
       <c r="AD29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE29" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE29" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
@@ -3856,10 +3914,10 @@
       <c r="E30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="21" t="s">
         <v>135</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -3871,14 +3929,14 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
       <c r="Q30" s="8" t="s">
         <v>74</v>
       </c>
@@ -3905,8 +3963,8 @@
       <c r="AD30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE30" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE30" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
@@ -3942,7 +4000,7 @@
       <c r="F31" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -3957,11 +4015,11 @@
       <c r="M31" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
       <c r="Q31" s="8" t="s">
         <v>74</v>
       </c>
@@ -3988,8 +4046,8 @@
       <c r="AD31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE31" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE31" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF31" s="8"/>
       <c r="AG31" s="8"/>
@@ -4036,9 +4094,9 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -4068,7 +4126,7 @@
       <c r="AK32" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="AL32" s="13" t="s">
+      <c r="AL32" s="17" t="s">
         <v>142</v>
       </c>
       <c r="AM32" s="8" t="n">
@@ -4094,7 +4152,7 @@
       <c r="F33" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="18" t="s">
         <v>144</v>
       </c>
       <c r="H33" s="8" t="s">
@@ -4109,7 +4167,7 @@
       <c r="M33" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="12" t="s">
         <v>145</v>
       </c>
       <c r="O33" s="8"/>
@@ -4140,8 +4198,8 @@
       <c r="AD33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE33" s="15" t="n">
-        <v>0.014175</v>
+      <c r="AE33" s="10" t="n">
+        <v>0.014179</v>
       </c>
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
@@ -4177,7 +4235,7 @@
       <c r="F34" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="18" t="s">
         <v>147</v>
       </c>
       <c r="H34" s="8" t="s">
@@ -4192,7 +4250,7 @@
       <c r="M34" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="12" t="s">
         <v>148</v>
       </c>
       <c r="O34" s="8"/>
@@ -4223,7 +4281,7 @@
       <c r="AD34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE34" s="15" t="n">
+      <c r="AE34" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF34" s="8"/>
@@ -4260,7 +4318,7 @@
       <c r="F35" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="18" t="s">
         <v>150</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -4275,7 +4333,7 @@
       <c r="M35" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="12" t="s">
         <v>151</v>
       </c>
       <c r="O35" s="8"/>
@@ -4306,7 +4364,7 @@
       <c r="AD35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE35" s="15" t="n">
+      <c r="AE35" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF35" s="8"/>
@@ -4343,7 +4401,7 @@
       <c r="F36" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H36" s="8" t="s">
@@ -4358,7 +4416,7 @@
       <c r="M36" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="12" t="s">
         <v>154</v>
       </c>
       <c r="O36" s="8"/>
@@ -4389,7 +4447,7 @@
       <c r="AD36" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE36" s="15" t="n">
+      <c r="AE36" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF36" s="8"/>
@@ -4426,7 +4484,7 @@
       <c r="F37" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -4441,7 +4499,7 @@
       <c r="M37" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="12" t="s">
         <v>157</v>
       </c>
       <c r="O37" s="8"/>
@@ -4472,8 +4530,8 @@
       <c r="AD37" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE37" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE37" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
@@ -4520,9 +4578,9 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -4552,7 +4610,7 @@
       <c r="AK38" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AL38" s="13" t="s">
+      <c r="AL38" s="17" t="s">
         <v>160</v>
       </c>
       <c r="AM38" s="8" t="n">
@@ -4578,7 +4636,7 @@
       <c r="F39" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="18" t="s">
         <v>162</v>
       </c>
       <c r="H39" s="8" t="s">
@@ -4593,7 +4651,7 @@
       <c r="M39" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="12" t="s">
         <v>163</v>
       </c>
       <c r="O39" s="8"/>
@@ -4624,7 +4682,7 @@
       <c r="AD39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE39" s="15" t="n">
+      <c r="AE39" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF39" s="8"/>
@@ -4658,10 +4716,10 @@
       <c r="E40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="18" t="s">
         <v>165</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -4673,10 +4731,10 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="12" t="s">
         <v>166</v>
       </c>
       <c r="O40" s="8"/>
@@ -4707,7 +4765,7 @@
       <c r="AD40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE40" s="15" t="n">
+      <c r="AE40" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF40" s="8"/>
@@ -4744,7 +4802,7 @@
       <c r="F41" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="18" t="s">
         <v>168</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -4759,7 +4817,7 @@
       <c r="M41" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="21" t="s">
         <v>169</v>
       </c>
       <c r="O41" s="8"/>
@@ -4790,7 +4848,7 @@
       <c r="AD41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE41" s="15" t="n">
+      <c r="AE41" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF41" s="8"/>
@@ -4827,7 +4885,7 @@
       <c r="F42" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -4842,7 +4900,7 @@
       <c r="M42" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="12" t="s">
         <v>172</v>
       </c>
       <c r="O42" s="8"/>
@@ -4873,7 +4931,7 @@
       <c r="AD42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE42" s="15" t="n">
+      <c r="AE42" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF42" s="8"/>
@@ -4910,7 +4968,7 @@
       <c r="F43" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="18" t="s">
         <v>174</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -4925,7 +4983,7 @@
       <c r="M43" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="N43" s="12" t="s">
         <v>175</v>
       </c>
       <c r="O43" s="8"/>
@@ -4956,7 +5014,7 @@
       <c r="AD43" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE43" s="15" t="n">
+      <c r="AE43" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF43" s="8"/>
@@ -4990,10 +5048,10 @@
       <c r="E44" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="18" t="s">
         <v>177</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -5005,10 +5063,10 @@
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="14" t="s">
+      <c r="M44" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="N44" s="11" t="n">
+      <c r="N44" s="12" t="n">
         <v>11111</v>
       </c>
       <c r="O44" s="8"/>
@@ -5039,8 +5097,8 @@
       <c r="AD44" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE44" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE44" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF44" s="8"/>
       <c r="AG44" s="8"/>
@@ -5087,9 +5145,9 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -5119,7 +5177,7 @@
       <c r="AK45" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AL45" s="13" t="s">
+      <c r="AL45" s="17" t="s">
         <v>180</v>
       </c>
       <c r="AM45" s="8" t="n">
@@ -5145,7 +5203,7 @@
       <c r="F46" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="12" t="s">
         <v>182</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -5160,11 +5218,11 @@
       <c r="M46" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
       <c r="Q46" s="8" t="s">
         <v>74</v>
       </c>
@@ -5191,7 +5249,7 @@
       <c r="AD46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE46" s="15" t="n">
+      <c r="AE46" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF46" s="8"/>
@@ -5228,7 +5286,7 @@
       <c r="F47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="18" t="s">
         <v>186</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -5243,7 +5301,7 @@
       <c r="M47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="12" t="s">
         <v>187</v>
       </c>
       <c r="O47" s="8"/>
@@ -5274,7 +5332,7 @@
       <c r="AD47" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE47" s="15" t="n">
+      <c r="AE47" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF47" s="8"/>
@@ -5311,7 +5369,7 @@
       <c r="F48" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="12" t="s">
         <v>189</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -5326,11 +5384,11 @@
       <c r="M48" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
       <c r="Q48" s="8" t="s">
         <v>74</v>
       </c>
@@ -5357,7 +5415,7 @@
       <c r="AD48" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE48" s="15" t="n">
+      <c r="AE48" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF48" s="8"/>
@@ -5394,7 +5452,7 @@
       <c r="F49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="12" t="s">
         <v>192</v>
       </c>
       <c r="H49" s="8" t="s">
@@ -5409,11 +5467,11 @@
       <c r="M49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
       <c r="Q49" s="8" t="s">
         <v>74</v>
       </c>
@@ -5440,7 +5498,7 @@
       <c r="AD49" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE49" s="15" t="n">
+      <c r="AE49" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF49" s="8"/>
@@ -5477,7 +5535,7 @@
       <c r="F50" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="18" t="s">
         <v>195</v>
       </c>
       <c r="H50" s="8" t="s">
@@ -5492,7 +5550,7 @@
       <c r="M50" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="12" t="s">
         <v>196</v>
       </c>
       <c r="O50" s="8"/>
@@ -5523,7 +5581,7 @@
       <c r="AD50" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE50" s="15" t="n">
+      <c r="AE50" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF50" s="8"/>
@@ -5560,7 +5618,7 @@
       <c r="F51" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="19" t="s">
         <v>198</v>
       </c>
       <c r="H51" s="8" t="s">
@@ -5575,7 +5633,7 @@
       <c r="M51" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="12" t="s">
         <v>199</v>
       </c>
       <c r="O51" s="8"/>
@@ -5606,8 +5664,8 @@
       <c r="AD51" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE51" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE51" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
@@ -5654,9 +5712,9 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -5686,7 +5744,7 @@
       <c r="AK52" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="AL52" s="13" t="s">
+      <c r="AL52" s="17" t="s">
         <v>202</v>
       </c>
       <c r="AM52" s="8" t="n">
@@ -5712,7 +5770,7 @@
       <c r="F53" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="18" t="s">
         <v>204</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -5727,7 +5785,7 @@
       <c r="M53" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="12" t="s">
         <v>205</v>
       </c>
       <c r="O53" s="8"/>
@@ -5758,7 +5816,7 @@
       <c r="AD53" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE53" s="15" t="n">
+      <c r="AE53" s="10" t="n">
         <v>0.014175</v>
       </c>
       <c r="AF53" s="8"/>
@@ -5795,7 +5853,7 @@
       <c r="F54" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="12" t="s">
         <v>207</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -5810,11 +5868,11 @@
       <c r="M54" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
       <c r="Q54" s="8" t="s">
         <v>74</v>
       </c>
@@ -5841,7 +5899,7 @@
       <c r="AD54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE54" s="15" t="n">
+      <c r="AE54" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF54" s="8"/>
@@ -5878,7 +5936,7 @@
       <c r="F55" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="12" t="s">
         <v>210</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -5893,11 +5951,11 @@
       <c r="M55" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
       <c r="Q55" s="8" t="s">
         <v>74</v>
       </c>
@@ -5924,7 +5982,7 @@
       <c r="AD55" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE55" s="15" t="n">
+      <c r="AE55" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF55" s="8"/>
@@ -5961,7 +6019,7 @@
       <c r="F56" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="12" t="s">
         <v>213</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -5976,11 +6034,11 @@
       <c r="M56" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
       <c r="Q56" s="8" t="s">
         <v>74</v>
       </c>
@@ -6007,7 +6065,7 @@
       <c r="AD56" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE56" s="15" t="n">
+      <c r="AE56" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF56" s="8"/>
@@ -6044,7 +6102,7 @@
       <c r="F57" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -6059,11 +6117,11 @@
       <c r="M57" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
       <c r="Q57" s="8" t="s">
         <v>74</v>
       </c>
@@ -6090,7 +6148,7 @@
       <c r="AD57" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE57" s="15" t="n">
+      <c r="AE57" s="10" t="n">
         <v>0.007</v>
       </c>
       <c r="AF57" s="8"/>
@@ -6127,7 +6185,7 @@
       <c r="F58" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="12" t="s">
         <v>219</v>
       </c>
       <c r="H58" s="8" t="s">
@@ -6142,11 +6200,11 @@
       <c r="M58" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="N58" s="11" t="n">
+      <c r="N58" s="12" t="n">
         <v>111111</v>
       </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
       <c r="Q58" s="8" t="s">
         <v>74</v>
       </c>
@@ -6173,8 +6231,8 @@
       <c r="AD58" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE58" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE58" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF58" s="8"/>
       <c r="AG58" s="8"/>
@@ -6210,7 +6268,7 @@
       <c r="F59" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="18" t="s">
         <v>221</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -6225,7 +6283,7 @@
       <c r="M59" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="12" t="s">
         <v>222</v>
       </c>
       <c r="O59" s="8"/>
@@ -6256,8 +6314,8 @@
       <c r="AD59" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE59" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE59" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF59" s="8"/>
       <c r="AG59" s="8"/>
@@ -6293,7 +6351,7 @@
       <c r="F60" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="12" t="s">
         <v>224</v>
       </c>
       <c r="H60" s="8" t="s">
@@ -6308,11 +6366,11 @@
       <c r="M60" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
       <c r="Q60" s="8" t="s">
         <v>74</v>
       </c>
@@ -6339,8 +6397,8 @@
       <c r="AD60" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE60" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE60" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF60" s="8"/>
       <c r="AG60" s="8"/>
@@ -6376,7 +6434,7 @@
       <c r="F61" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="18" t="s">
         <v>227</v>
       </c>
       <c r="H61" s="8" t="s">
@@ -6391,7 +6449,7 @@
       <c r="M61" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="12" t="s">
         <v>228</v>
       </c>
       <c r="O61" s="8"/>
@@ -6422,8 +6480,8 @@
       <c r="AD61" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE61" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE61" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF61" s="8"/>
       <c r="AG61" s="8"/>
@@ -6459,7 +6517,7 @@
       <c r="F62" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="12" t="s">
         <v>230</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -6474,11 +6532,11 @@
       <c r="M62" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="N62" s="11" t="n">
+      <c r="N62" s="12" t="n">
         <v>111111</v>
       </c>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
       <c r="Q62" s="8" t="s">
         <v>74</v>
       </c>
@@ -6505,8 +6563,8 @@
       <c r="AD62" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE62" s="15" t="n">
-        <v>0.00559722222222222</v>
+      <c r="AE62" s="10" t="n">
+        <v>0.005597</v>
       </c>
       <c r="AF62" s="8"/>
       <c r="AG62" s="8"/>
@@ -6557,13 +6615,13 @@
       <c r="M63" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="P63" s="11"/>
+      <c r="P63" s="12"/>
       <c r="Q63" s="8" t="s">
         <v>74</v>
       </c>
@@ -6588,7 +6646,7 @@
       <c r="AD63" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE63" s="15" t="n">
+      <c r="AE63" s="10" t="n">
         <v>0.0425</v>
       </c>
       <c r="AF63" s="8" t="n">
@@ -6648,13 +6706,13 @@
       <c r="M64" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="P64" s="11"/>
+      <c r="P64" s="12"/>
       <c r="Q64" s="8" t="s">
         <v>74</v>
       </c>
@@ -6679,7 +6737,7 @@
       <c r="AD64" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE64" s="15" t="n">
+      <c r="AE64" s="10" t="n">
         <v>0.0425</v>
       </c>
       <c r="AF64" s="8" t="n">
@@ -6739,13 +6797,13 @@
       <c r="M65" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="P65" s="11"/>
+      <c r="P65" s="12"/>
       <c r="Q65" s="8" t="s">
         <v>74</v>
       </c>
@@ -6770,7 +6828,7 @@
       <c r="AD65" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE65" s="15" t="n">
+      <c r="AE65" s="10" t="n">
         <v>0.0425</v>
       </c>
       <c r="AF65" s="8" t="n">
@@ -6864,7 +6922,7 @@
       <c r="AK66" s="8" t="n">
         <v>57</v>
       </c>
-      <c r="AL66" s="20" t="s">
+      <c r="AL66" s="23" t="s">
         <v>254</v>
       </c>
       <c r="AM66" s="8" t="n">
@@ -6938,9 +6996,7 @@
       <c r="AD67" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AE67" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE67" s="10"/>
       <c r="AF67" s="8"/>
       <c r="AG67" s="8"/>
       <c r="AH67" s="8"/>
@@ -7013,9 +7069,7 @@
       <c r="AD68" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE68" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE68" s="24"/>
       <c r="AF68" s="8"/>
       <c r="AG68" s="8"/>
       <c r="AH68" s="8"/>
@@ -7026,7 +7080,7 @@
       <c r="AK68" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="AL68" s="13" t="s">
+      <c r="AL68" s="17" t="s">
         <v>266</v>
       </c>
       <c r="AM68" s="8" t="n">
@@ -7100,9 +7154,7 @@
       <c r="AD69" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE69" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE69" s="10"/>
       <c r="AF69" s="8"/>
       <c r="AG69" s="8"/>
       <c r="AH69" s="8"/>
@@ -7181,9 +7233,7 @@
       <c r="AD70" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE70" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE70" s="10"/>
       <c r="AF70" s="8"/>
       <c r="AG70" s="8"/>
       <c r="AH70" s="8"/>
@@ -7229,9 +7279,9 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
       <c r="Q71" s="8" t="s">
         <v>278</v>
       </c>
@@ -7252,7 +7302,7 @@
       <c r="AD71" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE71" s="15" t="n">
+      <c r="AE71" s="10" t="n">
         <v>0.1275</v>
       </c>
       <c r="AF71" s="8"/>
@@ -7267,7 +7317,7 @@
       <c r="AK71" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="AL71" s="13" t="s">
+      <c r="AL71" s="17" t="s">
         <v>280</v>
       </c>
       <c r="AM71" s="8" t="n">
@@ -7308,11 +7358,11 @@
       <c r="M72" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8" t="s">
         <v>285</v>
@@ -7335,9 +7385,7 @@
       <c r="AD72" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE72" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE72" s="10"/>
       <c r="AF72" s="8"/>
       <c r="AG72" s="8"/>
       <c r="AH72" s="8" t="s">
@@ -7389,11 +7437,11 @@
       <c r="M73" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8" t="s">
         <v>285</v>
@@ -7416,9 +7464,7 @@
       <c r="AD73" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE73" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE73" s="10"/>
       <c r="AF73" s="8"/>
       <c r="AG73" s="8"/>
       <c r="AH73" s="8"/>
@@ -7469,8 +7515,8 @@
       <c r="N74" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8" t="s">
         <v>297</v>
@@ -7495,7 +7541,7 @@
       <c r="AD74" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE74" s="15" t="n">
+      <c r="AE74" s="10" t="n">
         <v>0.0425</v>
       </c>
       <c r="AF74" s="8"/>
@@ -7513,7 +7559,7 @@
         <v>65</v>
       </c>
       <c r="AL74" s="8"/>
-      <c r="AM74" s="17" t="n">
+      <c r="AM74" s="20" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7533,7 +7579,7 @@
       <c r="E75" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="25" t="s">
         <v>300</v>
       </c>
       <c r="G75" s="8" t="s">
@@ -7551,9 +7597,9 @@
       <c r="M75" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8" t="s">
         <v>285</v>
@@ -7576,7 +7622,7 @@
       <c r="AD75" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE75" s="15" t="n">
+      <c r="AE75" s="10" t="n">
         <v>0.0425</v>
       </c>
       <c r="AF75" s="8"/>
@@ -7592,7 +7638,7 @@
         <v>66</v>
       </c>
       <c r="AL75" s="8"/>
-      <c r="AM75" s="17" t="n">
+      <c r="AM75" s="20" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7618,7 +7664,7 @@
       <c r="G76" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="26" t="s">
         <v>306</v>
       </c>
       <c r="I76" s="8"/>
@@ -7632,9 +7678,9 @@
       <c r="M76" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
@@ -7655,7 +7701,7 @@
       <c r="AD76" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE76" s="15" t="n">
+      <c r="AE76" s="10" t="n">
         <v>0.0425</v>
       </c>
       <c r="AF76" s="8"/>
@@ -7671,7 +7717,7 @@
         <v>67</v>
       </c>
       <c r="AL76" s="8"/>
-      <c r="AM76" s="17" t="n">
+      <c r="AM76" s="20" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7705,9 +7751,9 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
       <c r="Q77" s="8" t="s">
         <v>310</v>
       </c>
@@ -7730,7 +7776,7 @@
       <c r="AD77" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE77" s="15" t="n">
+      <c r="AE77" s="10" t="n">
         <v>0.0425</v>
       </c>
       <c r="AF77" s="8"/>
@@ -7743,10 +7789,10 @@
       <c r="AK77" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="AL77" s="13" t="s">
+      <c r="AL77" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="AM77" s="17" t="n">
+      <c r="AM77" s="20" t="n">
         <v>400</v>
       </c>
     </row>
@@ -7809,9 +7855,7 @@
       <c r="AD78" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE78" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE78" s="10"/>
       <c r="AF78" s="8"/>
       <c r="AG78" s="8"/>
       <c r="AH78" s="8"/>
@@ -7822,7 +7866,7 @@
       <c r="AK78" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="AL78" s="13" t="s">
+      <c r="AL78" s="17" t="s">
         <v>316</v>
       </c>
       <c r="AM78" s="8" t="n">
@@ -7896,9 +7940,7 @@
       <c r="AD79" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE79" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE79" s="10"/>
       <c r="AF79" s="8"/>
       <c r="AG79" s="8"/>
       <c r="AH79" s="8"/>
@@ -7945,10 +7987,10 @@
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="23" t="s">
+      <c r="M80" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="N80" s="23" t="n">
+      <c r="N80" s="27" t="n">
         <v>5000034</v>
       </c>
       <c r="O80" s="8"/>
@@ -7979,17 +8021,15 @@
       <c r="AD80" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE80" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE80" s="10"/>
       <c r="AF80" s="8"/>
       <c r="AG80" s="8"/>
       <c r="AH80" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AI80" s="8"/>
-      <c r="AJ80" s="8" t="n">
-        <v>3</v>
+      <c r="AJ80" s="28" t="n">
+        <v>4</v>
       </c>
       <c r="AK80" s="8" t="n">
         <v>71</v>
@@ -8058,9 +8098,7 @@
       <c r="AD81" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE81" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE81" s="10"/>
       <c r="AF81" s="8"/>
       <c r="AG81" s="8"/>
       <c r="AH81" s="8"/>
@@ -8071,7 +8109,7 @@
       <c r="AK81" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="AL81" s="13" t="s">
+      <c r="AL81" s="17" t="s">
         <v>327</v>
       </c>
       <c r="AM81" s="8" t="n">
@@ -8145,9 +8183,7 @@
       <c r="AD82" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE82" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE82" s="10"/>
       <c r="AF82" s="8"/>
       <c r="AG82" s="8"/>
       <c r="AH82" s="8"/>
@@ -8226,15 +8262,13 @@
       <c r="AD83" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AE83" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE83" s="10"/>
       <c r="AF83" s="8"/>
       <c r="AG83" s="8"/>
       <c r="AH83" s="8"/>
       <c r="AI83" s="8"/>
-      <c r="AJ83" s="8" t="n">
-        <v>3</v>
+      <c r="AJ83" s="28" t="n">
+        <v>4</v>
       </c>
       <c r="AK83" s="8" t="n">
         <v>74</v>
@@ -8278,13 +8312,13 @@
       <c r="M84" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="P84" s="11"/>
+      <c r="P84" s="12"/>
       <c r="Q84" s="8" t="s">
         <v>74</v>
       </c>
@@ -8309,7 +8343,7 @@
       <c r="AD84" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE84" s="15" t="n">
+      <c r="AE84" s="10" t="n">
         <v>0.05</v>
       </c>
       <c r="AF84" s="8" t="n">
@@ -8369,13 +8403,13 @@
       <c r="M85" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="P85" s="11"/>
+      <c r="P85" s="12"/>
       <c r="Q85" s="8" t="s">
         <v>74</v>
       </c>
@@ -8400,7 +8434,7 @@
       <c r="AD85" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE85" s="15" t="n">
+      <c r="AE85" s="10" t="n">
         <v>0.05</v>
       </c>
       <c r="AF85" s="8" t="n">
@@ -8460,13 +8494,13 @@
       <c r="M86" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="P86" s="11"/>
+      <c r="P86" s="12"/>
       <c r="Q86" s="8" t="s">
         <v>74</v>
       </c>
@@ -8491,7 +8525,7 @@
       <c r="AD86" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AE86" s="15" t="n">
+      <c r="AE86" s="10" t="n">
         <v>0.05</v>
       </c>
       <c r="AF86" s="8" t="n">
@@ -8530,13 +8564,13 @@
       <c r="D87" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="20" t="s">
         <v>351</v>
       </c>
       <c r="H87" s="8" t="s">
@@ -8568,7 +8602,7 @@
       <c r="AB87" s="8"/>
       <c r="AC87" s="8"/>
       <c r="AD87" s="8"/>
-      <c r="AE87" s="15"/>
+      <c r="AE87" s="10"/>
       <c r="AF87" s="8"/>
       <c r="AG87" s="8"/>
       <c r="AH87" s="8"/>
@@ -8577,7 +8611,7 @@
       <c r="AK87" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="AL87" s="13" t="s">
+      <c r="AL87" s="17" t="s">
         <v>355</v>
       </c>
       <c r="AM87" s="8"/>
@@ -8595,13 +8629,13 @@
       <c r="D88" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="20" t="s">
         <v>357</v>
       </c>
       <c r="H88" s="8" t="s">
@@ -8614,7 +8648,7 @@
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
-      <c r="N88" s="13" t="s">
+      <c r="N88" s="17" t="s">
         <v>360</v>
       </c>
       <c r="O88" s="8"/>
@@ -8635,7 +8669,7 @@
       <c r="AB88" s="8"/>
       <c r="AC88" s="8"/>
       <c r="AD88" s="8"/>
-      <c r="AE88" s="15"/>
+      <c r="AE88" s="10"/>
       <c r="AF88" s="8"/>
       <c r="AG88" s="8"/>
       <c r="AH88" s="8"/>
@@ -8662,13 +8696,13 @@
       <c r="D89" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="20" t="s">
         <v>357</v>
       </c>
       <c r="H89" s="8" t="s">
@@ -8681,7 +8715,7 @@
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
-      <c r="N89" s="13" t="s">
+      <c r="N89" s="17" t="s">
         <v>361</v>
       </c>
       <c r="O89" s="8"/>
@@ -8702,7 +8736,7 @@
       <c r="AB89" s="8"/>
       <c r="AC89" s="8"/>
       <c r="AD89" s="8"/>
-      <c r="AE89" s="15"/>
+      <c r="AE89" s="10"/>
       <c r="AF89" s="8"/>
       <c r="AG89" s="8"/>
       <c r="AH89" s="8"/>
@@ -8729,13 +8763,13 @@
       <c r="D90" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="20" t="s">
         <v>357</v>
       </c>
       <c r="H90" s="8" t="s">
@@ -8748,7 +8782,7 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="13" t="s">
+      <c r="N90" s="17" t="s">
         <v>362</v>
       </c>
       <c r="O90" s="8"/>
@@ -8769,7 +8803,7 @@
       <c r="AB90" s="8"/>
       <c r="AC90" s="8"/>
       <c r="AD90" s="8"/>
-      <c r="AE90" s="15"/>
+      <c r="AE90" s="10"/>
       <c r="AF90" s="8"/>
       <c r="AG90" s="8"/>
       <c r="AH90" s="8"/>
@@ -8796,13 +8830,13 @@
       <c r="D91" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F91" s="17" t="s">
+      <c r="F91" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="20" t="s">
         <v>344</v>
       </c>
       <c r="H91" s="8" t="s">
@@ -8834,7 +8868,7 @@
       <c r="AB91" s="8"/>
       <c r="AC91" s="8"/>
       <c r="AD91" s="8"/>
-      <c r="AE91" s="15"/>
+      <c r="AE91" s="10"/>
       <c r="AF91" s="8"/>
       <c r="AG91" s="8"/>
       <c r="AH91" s="8"/>
@@ -8861,13 +8895,13 @@
       <c r="D92" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F92" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="20" t="s">
         <v>347</v>
       </c>
       <c r="H92" s="8" t="s">
@@ -8899,7 +8933,7 @@
       <c r="AB92" s="8"/>
       <c r="AC92" s="8"/>
       <c r="AD92" s="8"/>
-      <c r="AE92" s="15"/>
+      <c r="AE92" s="10"/>
       <c r="AF92" s="8"/>
       <c r="AG92" s="8"/>
       <c r="AH92" s="8"/>
@@ -8926,13 +8960,13 @@
       <c r="D93" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="20" t="s">
         <v>338</v>
       </c>
       <c r="H93" s="8" t="s">
@@ -8964,7 +8998,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
       <c r="AD93" s="8"/>
-      <c r="AE93" s="15"/>
+      <c r="AE93" s="10"/>
       <c r="AF93" s="8"/>
       <c r="AG93" s="8"/>
       <c r="AH93" s="8"/>
@@ -8994,10 +9028,10 @@
       <c r="E94" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" s="20" t="s">
         <v>368</v>
       </c>
       <c r="H94" s="8" t="s">
@@ -9010,7 +9044,7 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
-      <c r="N94" s="13" t="s">
+      <c r="N94" s="17" t="s">
         <v>370</v>
       </c>
       <c r="O94" s="8"/>
@@ -9031,7 +9065,7 @@
       <c r="AB94" s="8"/>
       <c r="AC94" s="8"/>
       <c r="AD94" s="8"/>
-      <c r="AE94" s="15"/>
+      <c r="AE94" s="10"/>
       <c r="AF94" s="8"/>
       <c r="AG94" s="8"/>
       <c r="AH94" s="8"/>
@@ -9040,14 +9074,13 @@
       <c r="AK94" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="AL94" s="13" t="s">
+      <c r="AL94" s="17" t="s">
         <v>371</v>
       </c>
       <c r="AM94" s="8"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AM90"/>
+  <autoFilter ref="A1:AM94"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1005,7 +1006,7 @@
     <t xml:space="preserve">STANDART 17</t>
   </si>
   <si>
-    <t xml:space="preserve">Activation Café zone</t>
+    <t xml:space="preserve">Activation Cafe zone</t>
   </si>
   <si>
     <t xml:space="preserve">Активация зоны кафе</t>
@@ -1550,45 +1551,45 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H93" activeCellId="0" sqref="H93"/>
+      <selection pane="bottomLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.1983805668016"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.9473684210526"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="10.6032388663968"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="370">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">Activation, Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">5449000193124, 5449000259455</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Peach Rose - 0.5L</t>
+    <t xml:space="preserve">Fuze Peach-Rose - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Персик - 0.5л</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">5449000233615</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Peach - 0.33L</t>
+    <t xml:space="preserve">Fuze Peach-Rose -  0.33L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Персик - 0.33л</t>
@@ -997,10 +997,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors </t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">STANDART 17</t>
@@ -1301,8 +1298,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1314,7 +1311,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1502,7 +1499,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1513,7 +1510,7 @@
       <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1549,54 +1546,54 @@
   <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.9473684210526"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.5910931174089"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>174</v>
       </c>
@@ -1776,7 +1773,7 @@
       </c>
       <c r="AM2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>178</v>
       </c>
@@ -1837,7 +1834,7 @@
       </c>
       <c r="AM3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>179</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>180</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>181</v>
       </c>
@@ -2024,7 +2021,7 @@
       </c>
       <c r="AM6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>188</v>
       </c>
@@ -2085,7 +2082,7 @@
       </c>
       <c r="AM7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>180</v>
       </c>
@@ -2148,7 +2145,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>1</v>
       </c>
@@ -2217,7 +2214,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -2300,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>2</v>
       </c>
@@ -2383,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>4</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>6</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>5</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>8</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>13</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>24</v>
       </c>
@@ -2881,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>7</v>
       </c>
@@ -2964,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>32</v>
       </c>
@@ -3047,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>23</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>12</v>
       </c>
@@ -3213,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>11</v>
       </c>
@@ -3296,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>13</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>28</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>35</v>
       </c>
@@ -3545,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>21</v>
       </c>
@@ -3628,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>12</v>
       </c>
@@ -3711,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>10</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>20</v>
       </c>
@@ -3877,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>30</v>
       </c>
@@ -3960,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>14</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>15</v>
       </c>
@@ -4112,7 +4109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>18</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>16</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>17</v>
       </c>
@@ -4361,7 +4358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>17</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>22</v>
       </c>
@@ -4513,7 +4510,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>23</v>
       </c>
@@ -4596,7 +4593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>26</v>
       </c>
@@ -4679,7 +4676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>29</v>
       </c>
@@ -4762,7 +4759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>27</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>30</v>
       </c>
@@ -4928,7 +4925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>25</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>31</v>
       </c>
@@ -5080,7 +5077,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>73</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>32</v>
       </c>
@@ -5246,7 +5243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>81</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>75</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>35</v>
       </c>
@@ -5495,7 +5492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>33</v>
       </c>
@@ -5578,7 +5575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>36</v>
       </c>
@@ -5647,7 +5644,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>37</v>
       </c>
@@ -5730,7 +5727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>116</v>
       </c>
@@ -5813,7 +5810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>150</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>151</v>
       </c>
@@ -5979,7 +5976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>169</v>
       </c>
@@ -6062,7 +6059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>111</v>
       </c>
@@ -6145,7 +6142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>38</v>
       </c>
@@ -6228,7 +6225,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>124</v>
       </c>
@@ -6311,7 +6308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>39</v>
       </c>
@@ -6394,7 +6391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>125</v>
       </c>
@@ -6477,7 +6474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>41</v>
       </c>
@@ -6568,7 +6565,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>42</v>
       </c>
@@ -6659,7 +6656,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>44</v>
       </c>
@@ -6750,7 +6747,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>130</v>
       </c>
@@ -6819,9 +6816,11 @@
       <c r="AL65" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="AM65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AM65" s="7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>45</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>46</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>47</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
         <v>48</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
         <v>50</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>51</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
         <v>52</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
         <v>53</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
         <v>37</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
         <v>38</v>
       </c>
@@ -7553,9 +7552,7 @@
       <c r="H75" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="I75" s="20" t="s">
-        <v>303</v>
-      </c>
+      <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7" t="n">
         <v>1</v>
@@ -7566,11 +7563,15 @@
       <c r="M75" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="N75" s="11"/>
+      <c r="N75" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
+      <c r="R75" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
@@ -7609,7 +7610,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
         <v>39</v>
@@ -7621,13 +7622,13 @@
         <v>41</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>251</v>
@@ -7643,7 +7644,7 @@
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -7651,7 +7652,7 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X76" s="7" t="s">
         <v>266</v>
@@ -7678,13 +7679,13 @@
         <v>68</v>
       </c>
       <c r="AL76" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM76" s="21" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>54</v>
       </c>
@@ -7698,13 +7699,13 @@
         <v>41</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>251</v>
@@ -7720,7 +7721,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
@@ -7728,7 +7729,7 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X77" s="7" t="s">
         <v>266</v>
@@ -7755,13 +7756,13 @@
         <v>69</v>
       </c>
       <c r="AL77" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM77" s="7" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>57</v>
       </c>
@@ -7775,13 +7776,13 @@
         <v>41</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>70</v>
@@ -7793,27 +7794,27 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="N78" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="N78" s="7" t="s">
+      <c r="O78" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X78" s="7" t="s">
         <v>266</v>
@@ -7844,7 +7845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>58</v>
       </c>
@@ -7858,16 +7859,16 @@
         <v>41</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="n">
@@ -7876,7 +7877,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N79" s="22" t="n">
         <v>5000034</v>
@@ -7894,7 +7895,7 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X79" s="7" t="s">
         <v>266</v>
@@ -7913,7 +7914,7 @@
       <c r="AF79" s="7"/>
       <c r="AG79" s="7"/>
       <c r="AH79" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7" t="n">
@@ -7927,7 +7928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>59</v>
       </c>
@@ -7941,13 +7942,13 @@
         <v>41</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>251</v>
@@ -7963,7 +7964,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -7971,7 +7972,7 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X80" s="7" t="s">
         <v>266</v>
@@ -7998,13 +7999,13 @@
         <v>72</v>
       </c>
       <c r="AL80" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AM80" s="7" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>62</v>
       </c>
@@ -8018,13 +8019,13 @@
         <v>41</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>70</v>
@@ -8037,26 +8038,26 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P81" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="Q81" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X81" s="7" t="s">
         <v>266</v>
@@ -8087,7 +8088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>63</v>
       </c>
@@ -8101,13 +8102,13 @@
         <v>41</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F82" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>70</v>
@@ -8119,10 +8120,10 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="N82" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -8137,7 +8138,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
@@ -8166,7 +8167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>64</v>
       </c>
@@ -8177,16 +8178,16 @@
         <v>40</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>232</v>
@@ -8218,7 +8219,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
@@ -8241,10 +8242,10 @@
         <v>1</v>
       </c>
       <c r="AH83" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI83" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="AI83" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="AJ83" s="7" t="n">
         <v>2</v>
@@ -8257,7 +8258,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>65</v>
       </c>
@@ -8268,16 +8269,16 @@
         <v>40</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>232</v>
@@ -8309,7 +8310,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
@@ -8332,10 +8333,10 @@
         <v>1</v>
       </c>
       <c r="AH84" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI84" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="AI84" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="AJ84" s="7" t="n">
         <v>2</v>
@@ -8348,7 +8349,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>67</v>
       </c>
@@ -8359,16 +8360,16 @@
         <v>40</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>232</v>
@@ -8400,7 +8401,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
@@ -8423,10 +8424,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI85" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="AI85" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="AJ85" s="7" t="n">
         <v>2</v>
@@ -8439,7 +8440,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
         <v>68</v>
       </c>
@@ -8450,22 +8451,22 @@
         <v>40</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>295</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="H86" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="I86" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -8476,7 +8477,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -8500,11 +8501,11 @@
         <v>78</v>
       </c>
       <c r="AL86" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM86" s="7"/>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
         <v>70</v>
       </c>
@@ -8515,35 +8516,35 @@
         <v>40</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>248</v>
       </c>
       <c r="F87" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G87" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="H87" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -8571,7 +8572,7 @@
       </c>
       <c r="AM87" s="7"/>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
         <v>71</v>
       </c>
@@ -8582,35 +8583,35 @@
         <v>40</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>248</v>
       </c>
       <c r="F88" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G88" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="H88" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="I88" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -8638,7 +8639,7 @@
       </c>
       <c r="AM88" s="7"/>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
         <v>72</v>
       </c>
@@ -8649,35 +8650,35 @@
         <v>40</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>248</v>
       </c>
       <c r="F89" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G89" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="H89" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -8705,7 +8706,7 @@
       </c>
       <c r="AM89" s="7"/>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
         <v>73</v>
       </c>
@@ -8716,22 +8717,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E90" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G90" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="H90" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G90" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="I90" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8742,7 +8743,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -8770,7 +8771,7 @@
       </c>
       <c r="AM90" s="7"/>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
         <v>74</v>
       </c>
@@ -8781,22 +8782,22 @@
         <v>40</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E91" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G91" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="F91" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>347</v>
-      </c>
       <c r="H91" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8807,7 +8808,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8835,7 +8836,7 @@
       </c>
       <c r="AM91" s="7"/>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
         <v>75</v>
       </c>
@@ -8846,22 +8847,22 @@
         <v>40</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E92" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G92" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="F92" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>338</v>
-      </c>
       <c r="H92" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -8872,7 +8873,7 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
@@ -8900,7 +8901,7 @@
       </c>
       <c r="AM92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
         <v>50</v>
       </c>
@@ -8911,35 +8912,35 @@
         <v>40</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F93" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G93" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="G93" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="H93" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
@@ -8963,7 +8964,7 @@
         <v>85</v>
       </c>
       <c r="AL93" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM93" s="7"/>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="371">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -662,10 +663,13 @@
     <t xml:space="preserve">5449000233615</t>
   </si>
   <si>
+    <t xml:space="preserve">Fuze Peach-Rose - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Персик - 0.33л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Peach-Rose -  0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Персик - 0.33л</t>
   </si>
   <si>
     <t xml:space="preserve">5449000238863</t>
@@ -1548,45 +1552,45 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="79.5910931174089"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="80.2307692307692"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="10.6032388663968"/>
@@ -5524,10 +5528,10 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -5592,10 +5596,10 @@
         <v>104</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>65</v>
@@ -5638,7 +5642,7 @@
         <v>43</v>
       </c>
       <c r="AL51" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM51" s="7" t="n">
         <v>300</v>
@@ -5661,10 +5665,10 @@
         <v>104</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>70</v>
@@ -5676,10 +5680,10 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
@@ -5744,10 +5748,10 @@
         <v>104</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>70</v>
@@ -5759,10 +5763,10 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -5827,10 +5831,10 @@
         <v>104</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>70</v>
@@ -5842,10 +5846,10 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -5910,10 +5914,10 @@
         <v>104</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>70</v>
@@ -5925,10 +5929,10 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
@@ -5993,10 +5997,10 @@
         <v>104</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>70</v>
@@ -6008,10 +6012,10 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -6076,10 +6080,10 @@
         <v>104</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>70</v>
@@ -6091,7 +6095,7 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N57" s="11" t="n">
         <v>111111</v>
@@ -6159,10 +6163,10 @@
         <v>104</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>70</v>
@@ -6174,10 +6178,10 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -6242,10 +6246,10 @@
         <v>104</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>70</v>
@@ -6257,10 +6261,10 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
@@ -6325,10 +6329,10 @@
         <v>104</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>70</v>
@@ -6340,10 +6344,10 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
@@ -6408,10 +6412,10 @@
         <v>104</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>70</v>
@@ -6423,7 +6427,7 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N61" s="11" t="n">
         <v>111111</v>
@@ -6488,16 +6492,16 @@
         <v>41</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7" t="n">
@@ -6506,27 +6510,27 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P62" s="11"/>
       <c r="Q62" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
@@ -6537,7 +6541,7 @@
         <v>66</v>
       </c>
       <c r="AD62" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE62" s="9" t="n">
         <v>0.0425</v>
@@ -6549,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="AH62" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI62" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AJ62" s="7" t="n">
         <v>2</v>
@@ -6579,16 +6583,16 @@
         <v>41</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="n">
@@ -6597,27 +6601,27 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
@@ -6628,7 +6632,7 @@
         <v>66</v>
       </c>
       <c r="AD63" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE63" s="9" t="n">
         <v>0.0425</v>
@@ -6640,10 +6644,10 @@
         <v>1</v>
       </c>
       <c r="AH63" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI63" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AJ63" s="7" t="n">
         <v>2</v>
@@ -6670,16 +6674,16 @@
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7" t="n">
@@ -6688,27 +6692,27 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P64" s="11"/>
       <c r="Q64" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
@@ -6719,7 +6723,7 @@
         <v>66</v>
       </c>
       <c r="AD64" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE64" s="9" t="n">
         <v>0.0425</v>
@@ -6731,10 +6735,10 @@
         <v>1</v>
       </c>
       <c r="AH64" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI64" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AJ64" s="7" t="n">
         <v>2</v>
@@ -6761,16 +6765,16 @@
         <v>41</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7" t="n">
@@ -6814,7 +6818,7 @@
         <v>130</v>
       </c>
       <c r="AL65" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM65" s="7" t="n">
         <v>400</v>
@@ -6834,16 +6838,16 @@
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7" t="n">
@@ -6887,7 +6891,7 @@
         <v>57</v>
       </c>
       <c r="AL66" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM66" s="19" t="n">
         <v>130</v>
@@ -6907,16 +6911,16 @@
         <v>41</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7" t="n">
@@ -6927,29 +6931,29 @@
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
@@ -6958,7 +6962,7 @@
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE67" s="9"/>
       <c r="AF67" s="7"/>
@@ -6990,16 +6994,16 @@
         <v>41</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7" t="n">
@@ -7021,7 +7025,7 @@
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
@@ -7045,7 +7049,7 @@
         <v>59</v>
       </c>
       <c r="AL68" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM68" s="19" t="n">
         <v>130</v>
@@ -7065,13 +7069,13 @@
         <v>41</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>70</v>
@@ -7083,30 +7087,30 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
@@ -7148,16 +7152,16 @@
         <v>41</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -7168,7 +7172,7 @@
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
@@ -7185,7 +7189,7 @@
         <v>66</v>
       </c>
       <c r="AD70" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE70" s="9" t="n">
         <v>0.1275</v>
@@ -7193,7 +7197,7 @@
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
       <c r="AH70" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7" t="n">
@@ -7203,7 +7207,7 @@
         <v>62</v>
       </c>
       <c r="AL70" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM70" s="7" t="n">
         <v>311</v>
@@ -7223,16 +7227,16 @@
         <v>41</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7" t="n">
@@ -7241,23 +7245,23 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
@@ -7274,7 +7278,7 @@
       <c r="AF71" s="7"/>
       <c r="AG71" s="7"/>
       <c r="AH71" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7" t="n">
@@ -7302,16 +7306,16 @@
         <v>41</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="n">
@@ -7320,23 +7324,23 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
@@ -7379,16 +7383,16 @@
         <v>41</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7" t="n">
@@ -7398,13 +7402,13 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -7414,7 +7418,7 @@
         <v>74</v>
       </c>
       <c r="X73" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
@@ -7432,10 +7436,10 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="7"/>
       <c r="AH73" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI73" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ73" s="7" t="n">
         <v>2</v>
@@ -7462,16 +7466,16 @@
         <v>41</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="n">
@@ -7480,21 +7484,21 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
@@ -7505,7 +7509,7 @@
         <v>66</v>
       </c>
       <c r="AD74" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE74" s="9" t="n">
         <v>0.0425</v>
@@ -7513,7 +7517,7 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
       <c r="AH74" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7" t="n">
@@ -7541,16 +7545,16 @@
         <v>41</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -7561,23 +7565,23 @@
         <v>15</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
@@ -7596,7 +7600,7 @@
       <c r="AF75" s="7"/>
       <c r="AG75" s="7"/>
       <c r="AH75" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7" t="n">
@@ -7622,16 +7626,16 @@
         <v>41</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7" t="n">
@@ -7644,7 +7648,7 @@
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -7652,10 +7656,10 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X76" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
@@ -7679,7 +7683,7 @@
         <v>68</v>
       </c>
       <c r="AL76" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM76" s="21" t="n">
         <v>400</v>
@@ -7699,16 +7703,16 @@
         <v>41</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7" t="n">
@@ -7721,7 +7725,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
@@ -7729,10 +7733,10 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X77" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
@@ -7756,7 +7760,7 @@
         <v>69</v>
       </c>
       <c r="AL77" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM77" s="7" t="n">
         <v>68</v>
@@ -7776,13 +7780,13 @@
         <v>41</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>70</v>
@@ -7794,30 +7798,30 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X78" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
@@ -7859,16 +7863,16 @@
         <v>41</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="n">
@@ -7877,7 +7881,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N79" s="22" t="n">
         <v>5000034</v>
@@ -7895,10 +7899,10 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X79" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
@@ -7914,7 +7918,7 @@
       <c r="AF79" s="7"/>
       <c r="AG79" s="7"/>
       <c r="AH79" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7" t="n">
@@ -7942,16 +7946,16 @@
         <v>41</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7" t="n">
@@ -7964,7 +7968,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -7972,10 +7976,10 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X80" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
@@ -7999,7 +8003,7 @@
         <v>72</v>
       </c>
       <c r="AL80" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM80" s="7" t="n">
         <v>68</v>
@@ -8019,13 +8023,13 @@
         <v>41</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>70</v>
@@ -8038,29 +8042,29 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q81" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X81" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
@@ -8102,13 +8106,13 @@
         <v>41</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>70</v>
@@ -8120,10 +8124,10 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -8138,7 +8142,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
@@ -8178,19 +8182,19 @@
         <v>40</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7" t="n">
@@ -8199,27 +8203,27 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P83" s="11"/>
       <c r="Q83" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
@@ -8230,7 +8234,7 @@
         <v>66</v>
       </c>
       <c r="AD83" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE83" s="9" t="n">
         <v>0.05</v>
@@ -8242,10 +8246,10 @@
         <v>1</v>
       </c>
       <c r="AH83" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI83" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ83" s="7" t="n">
         <v>2</v>
@@ -8269,19 +8273,19 @@
         <v>40</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7" t="n">
@@ -8290,27 +8294,27 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P84" s="11"/>
       <c r="Q84" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
@@ -8321,7 +8325,7 @@
         <v>66</v>
       </c>
       <c r="AD84" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE84" s="9" t="n">
         <v>0.05</v>
@@ -8333,10 +8337,10 @@
         <v>1</v>
       </c>
       <c r="AH84" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI84" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ84" s="7" t="n">
         <v>2</v>
@@ -8360,19 +8364,19 @@
         <v>40</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7" t="n">
@@ -8381,27 +8385,27 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P85" s="11"/>
       <c r="Q85" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
@@ -8412,7 +8416,7 @@
         <v>66</v>
       </c>
       <c r="AD85" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE85" s="9" t="n">
         <v>0.05</v>
@@ -8424,10 +8428,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI85" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ85" s="7" t="n">
         <v>2</v>
@@ -8451,22 +8455,22 @@
         <v>40</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -8477,7 +8481,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -8501,7 +8505,7 @@
         <v>78</v>
       </c>
       <c r="AL86" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM86" s="7"/>
     </row>
@@ -8516,35 +8520,35 @@
         <v>40</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -8583,35 +8587,35 @@
         <v>40</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -8650,35 +8654,35 @@
         <v>40</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -8717,22 +8721,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8743,7 +8747,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -8782,22 +8786,22 @@
         <v>40</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F91" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="I91" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8808,7 +8812,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8847,22 +8851,22 @@
         <v>40</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -8873,7 +8877,7 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
@@ -8912,35 +8916,35 @@
         <v>40</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
@@ -8964,7 +8968,7 @@
         <v>85</v>
       </c>
       <c r="AL93" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM93" s="7"/>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -732,10 +733,10 @@
     <t xml:space="preserve">4650075421048</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 7</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
@@ -765,10 +766,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 20</t>
@@ -1490,6 +1491,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1519,10 +1524,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1635,52 +1636,52 @@
   <dimension ref="1:93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
+      <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3562753036437"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.2753036437247"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.73279352226721"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="32.3076923076923"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.5222672064777"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6165,26 +6166,26 @@
       <c r="E57" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5" t="s">
+      <c r="I57" s="16"/>
+      <c r="J57" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="N57" s="9" t="n">
-        <v>111111</v>
+      <c r="N57" s="17" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
@@ -6497,26 +6498,26 @@
       <c r="E61" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5" t="s">
+      <c r="I61" s="16"/>
+      <c r="J61" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N61" s="9" t="n">
-        <v>111111</v>
+      <c r="N61" s="17" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
@@ -7064,7 +7065,7 @@
       <c r="AL67" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="AM67" s="20" t="n">
+      <c r="AM67" s="21" t="n">
         <v>130</v>
       </c>
     </row>
@@ -7700,7 +7701,7 @@
       <c r="AL75" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AM75" s="21" t="n">
+      <c r="AM75" s="22" t="n">
         <v>400</v>
       </c>
     </row>
@@ -7895,7 +7896,7 @@
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="22" t="s">
+      <c r="M78" s="23" t="s">
         <v>319</v>
       </c>
       <c r="N78" s="19" t="s">
@@ -8172,7 +8173,7 @@
       <c r="AD81" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AE81" s="23"/>
+      <c r="AE81" s="24"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="15"/>
       <c r="AH81" s="15"/>
@@ -8461,7 +8462,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" s="25" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <v>68</v>
       </c>
@@ -8528,7 +8529,7 @@
       <c r="AT85" s="5"/>
       <c r="AMJ85" s="0"/>
     </row>
-    <row r="86" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <v>70</v>
       </c>
@@ -8595,9 +8596,8 @@
       </c>
       <c r="AM86" s="5"/>
       <c r="AT86" s="5"/>
-      <c r="AMJ86" s="0"/>
-    </row>
-    <row r="87" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <v>71</v>
       </c>
@@ -8664,9 +8664,8 @@
       </c>
       <c r="AM87" s="5"/>
       <c r="AT87" s="13"/>
-      <c r="AMJ87" s="0"/>
-    </row>
-    <row r="88" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>73</v>
       </c>
@@ -8731,9 +8730,8 @@
       </c>
       <c r="AM88" s="5"/>
       <c r="AT88" s="13"/>
-      <c r="AMJ88" s="0"/>
-    </row>
-    <row r="89" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
         <v>74</v>
       </c>
@@ -8798,9 +8796,8 @@
       </c>
       <c r="AM89" s="5"/>
       <c r="AT89" s="13"/>
-      <c r="AMJ89" s="0"/>
-    </row>
-    <row r="90" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>75</v>
       </c>
@@ -8865,9 +8862,8 @@
       </c>
       <c r="AM90" s="5"/>
       <c r="AT90" s="13"/>
-      <c r="AMJ90" s="0"/>
-    </row>
-    <row r="91" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>76</v>
       </c>
@@ -8901,7 +8897,7 @@
       <c r="M91" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="N91" s="25" t="s">
+      <c r="N91" s="26" t="s">
         <v>367</v>
       </c>
       <c r="O91" s="5"/>
@@ -8936,39 +8932,38 @@
       </c>
       <c r="AM91" s="5"/>
       <c r="AT91" s="13"/>
-      <c r="AMJ91" s="0"/>
-    </row>
-    <row r="92" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="n">
+    </row>
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="27" t="n">
         <v>77</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="26" t="s">
+      <c r="B92" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E92" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G92" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="I92" s="26" t="s">
+      <c r="I92" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
       <c r="M92" s="16"/>
       <c r="N92" s="29" t="s">
         <v>373</v>
@@ -9004,7 +8999,6 @@
       </c>
       <c r="AL92" s="16"/>
       <c r="AT92" s="13"/>
-      <c r="AMJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="n">
@@ -9032,9 +9026,9 @@
       <c r="I93" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
       <c r="M93" s="16"/>
       <c r="N93" s="33"/>
       <c r="O93" s="16"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214F8ED-EACC-459B-B3FE-D1DCCC40F2F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6AA83A-7458-4D95-9478-CEE8712992F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="389">
   <si>
     <t>Sorting</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -1267,12 +1264,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board, SS_Café Activation, SS_Cash Zone</t>
-  </si>
-  <si>
     <t>Displays, SS_Displays</t>
   </si>
   <si>
@@ -1280,6 +1271,18 @@
   </si>
   <si>
     <t>Coca-Cola Zero Cherry - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
   </si>
 </sst>
 </file>
@@ -1782,9 +1785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2136,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2142,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="7">
         <v>1.4194E-2</v>
@@ -2179,10 +2182,10 @@
         <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>53</v>
@@ -2194,10 +2197,10 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -2216,7 +2219,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2225,7 +2228,7 @@
         <v>49</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="7">
         <v>1.4194E-2</v>
@@ -2262,10 +2265,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>53</v>
@@ -2277,10 +2280,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -2299,14 +2302,14 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE6" s="7">
         <v>1.4194E-2</v>
@@ -2343,10 +2346,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>53</v>
@@ -2358,10 +2361,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -2380,7 +2383,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2389,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="7">
         <v>1.4194E-2</v>
@@ -2426,10 +2429,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>53</v>
@@ -2441,10 +2444,10 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2463,7 +2466,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -2472,7 +2475,7 @@
         <v>49</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2509,10 +2512,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>53</v>
@@ -2524,10 +2527,10 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2546,7 +2549,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2555,7 +2558,7 @@
         <v>49</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE9" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2592,10 +2595,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>53</v>
@@ -2607,10 +2610,10 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2629,7 +2632,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2638,7 +2641,7 @@
         <v>49</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2675,10 +2678,10 @@
         <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>53</v>
@@ -2690,7 +2693,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="6">
         <v>42099697</v>
@@ -2712,14 +2715,14 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2756,10 +2759,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>53</v>
@@ -2771,10 +2774,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2793,7 +2796,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2802,7 +2805,7 @@
         <v>49</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE12" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2839,10 +2842,10 @@
         <v>45</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>53</v>
@@ -2854,10 +2857,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2876,7 +2879,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2885,7 +2888,7 @@
         <v>49</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE13" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2922,10 +2925,10 @@
         <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>53</v>
@@ -2937,10 +2940,10 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2959,14 +2962,14 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE14" s="7">
         <v>8.8999999999999999E-3</v>
@@ -3003,10 +3006,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>53</v>
@@ -3018,10 +3021,10 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -3040,14 +3043,14 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE15" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3084,10 +3087,10 @@
         <v>45</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>53</v>
@@ -3099,10 +3102,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -3121,14 +3124,14 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE16" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3165,10 +3168,10 @@
         <v>45</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>53</v>
@@ -3180,10 +3183,10 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -3202,7 +3205,7 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -3211,7 +3214,7 @@
         <v>49</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE17" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3248,10 +3251,10 @@
         <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>53</v>
@@ -3263,10 +3266,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -3285,7 +3288,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -3294,7 +3297,7 @@
         <v>49</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE18" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3331,10 +3334,10 @@
         <v>45</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>53</v>
@@ -3346,10 +3349,10 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3368,7 +3371,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -3377,7 +3380,7 @@
         <v>49</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3414,10 +3417,10 @@
         <v>45</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>53</v>
@@ -3429,10 +3432,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3451,7 +3454,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -3460,7 +3463,7 @@
         <v>49</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE20" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3497,10 +3500,10 @@
         <v>45</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>53</v>
@@ -3512,7 +3515,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N21" s="6">
         <v>5449000253101</v>
@@ -3534,14 +3537,14 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE21" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3578,10 +3581,10 @@
         <v>45</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>53</v>
@@ -3593,10 +3596,10 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3615,7 +3618,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -3624,7 +3627,7 @@
         <v>49</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE22" s="7">
         <v>5.5890000000000002E-3</v>
@@ -3658,13 +3661,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>48</v>
@@ -3707,7 +3710,7 @@
         <v>23</v>
       </c>
       <c r="AL23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM23" s="6">
         <v>300</v>
@@ -3727,13 +3730,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>53</v>
@@ -3745,10 +3748,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3767,7 +3770,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
@@ -3776,7 +3779,7 @@
         <v>49</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE24" s="7">
         <v>1.2919E-2</v>
@@ -3810,13 +3813,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>53</v>
@@ -3828,10 +3831,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -3850,7 +3853,7 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
@@ -3859,7 +3862,7 @@
         <v>49</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE25" s="7">
         <v>8.4159999999999999E-3</v>
@@ -3893,13 +3896,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>53</v>
@@ -3911,10 +3914,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3933,7 +3936,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -3942,7 +3945,7 @@
         <v>49</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE26" s="7">
         <v>8.4159999999999999E-3</v>
@@ -3976,13 +3979,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>53</v>
@@ -3994,10 +3997,10 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -4016,7 +4019,7 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -4025,7 +4028,7 @@
         <v>49</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE27" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4059,13 +4062,13 @@
         <v>41</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>53</v>
@@ -4077,10 +4080,10 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -4099,7 +4102,7 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -4108,7 +4111,7 @@
         <v>49</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE28" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4142,13 +4145,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>53</v>
@@ -4160,7 +4163,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N29" s="6">
         <v>5449000152190</v>
@@ -4182,14 +4185,14 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE29" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4223,13 +4226,13 @@
         <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>48</v>
@@ -4272,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="AL30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM30" s="6">
         <v>300</v>
@@ -4292,13 +4295,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>53</v>
@@ -4310,10 +4313,10 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -4332,7 +4335,7 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
@@ -4341,7 +4344,7 @@
         <v>49</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE31" s="7">
         <v>1.2919E-2</v>
@@ -4375,13 +4378,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>53</v>
@@ -4393,10 +4396,10 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -4415,7 +4418,7 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
@@ -4424,7 +4427,7 @@
         <v>49</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE32" s="7">
         <v>1.2919E-2</v>
@@ -4458,13 +4461,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>53</v>
@@ -4476,10 +4479,10 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -4498,7 +4501,7 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
@@ -4507,7 +4510,7 @@
         <v>49</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE33" s="7">
         <v>1.2919E-2</v>
@@ -4541,13 +4544,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>53</v>
@@ -4559,7 +4562,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N34" s="6">
         <v>5060517888794</v>
@@ -4581,7 +4584,7 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
@@ -4590,7 +4593,7 @@
         <v>49</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE34" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4624,13 +4627,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>53</v>
@@ -4642,10 +4645,10 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -4664,7 +4667,7 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
@@ -4673,7 +4676,7 @@
         <v>49</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE35" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4707,13 +4710,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>53</v>
@@ -4725,10 +4728,10 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -4747,7 +4750,7 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
@@ -4756,7 +4759,7 @@
         <v>49</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE36" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4790,13 +4793,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>53</v>
@@ -4808,10 +4811,10 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -4830,7 +4833,7 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
@@ -4839,7 +4842,7 @@
         <v>49</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE37" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4873,13 +4876,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>48</v>
@@ -4922,7 +4925,7 @@
         <v>36</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AM38" s="6">
         <v>300</v>
@@ -4942,13 +4945,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>53</v>
@@ -4960,10 +4963,10 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -4982,7 +4985,7 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -4991,7 +4994,7 @@
         <v>49</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE39" s="7">
         <v>1.2919E-2</v>
@@ -5025,13 +5028,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>53</v>
@@ -5043,10 +5046,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -5065,7 +5068,7 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
@@ -5074,7 +5077,7 @@
         <v>49</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE40" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5108,13 +5111,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>53</v>
@@ -5126,10 +5129,10 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -5148,7 +5151,7 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
@@ -5157,7 +5160,7 @@
         <v>49</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE41" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5191,13 +5194,13 @@
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>53</v>
@@ -5209,10 +5212,10 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -5231,7 +5234,7 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
@@ -5240,7 +5243,7 @@
         <v>49</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE42" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5274,13 +5277,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>53</v>
@@ -5292,10 +5295,10 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -5314,7 +5317,7 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
@@ -5323,7 +5326,7 @@
         <v>49</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE43" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5357,13 +5360,13 @@
         <v>41</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>48</v>
@@ -5406,7 +5409,7 @@
         <v>43</v>
       </c>
       <c r="AL44" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM44" s="6">
         <v>300</v>
@@ -5426,13 +5429,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>53</v>
@@ -5444,10 +5447,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -5466,7 +5469,7 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
@@ -5475,7 +5478,7 @@
         <v>49</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE45" s="7">
         <v>1.2919E-2</v>
@@ -5509,13 +5512,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>53</v>
@@ -5527,10 +5530,10 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -5549,7 +5552,7 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
@@ -5558,7 +5561,7 @@
         <v>49</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE46" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5592,13 +5595,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>53</v>
@@ -5610,10 +5613,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5632,7 +5635,7 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
@@ -5641,7 +5644,7 @@
         <v>49</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE47" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5675,13 +5678,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>53</v>
@@ -5693,10 +5696,10 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -5715,7 +5718,7 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
@@ -5724,7 +5727,7 @@
         <v>49</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE48" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5758,13 +5761,13 @@
         <v>41</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>53</v>
@@ -5776,10 +5779,10 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -5798,7 +5801,7 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
@@ -5807,7 +5810,7 @@
         <v>49</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE49" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5841,13 +5844,13 @@
         <v>41</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>53</v>
@@ -5859,10 +5862,10 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -5881,14 +5884,14 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE50" s="7">
         <v>3.1700000000000001E-3</v>
@@ -5922,13 +5925,13 @@
         <v>41</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>53</v>
@@ -5940,10 +5943,10 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -5962,14 +5965,14 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE51" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6003,13 +6006,13 @@
         <v>41</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>53</v>
@@ -6021,10 +6024,10 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -6043,7 +6046,7 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
@@ -6052,7 +6055,7 @@
         <v>49</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE52" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6086,13 +6089,13 @@
         <v>41</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>53</v>
@@ -6104,10 +6107,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -6126,7 +6129,7 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
@@ -6135,7 +6138,7 @@
         <v>49</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE53" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6169,13 +6172,13 @@
         <v>41</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>53</v>
@@ -6187,7 +6190,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N54" s="6">
         <v>4650075423257</v>
@@ -6209,7 +6212,7 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
@@ -6218,7 +6221,7 @@
         <v>49</v>
       </c>
       <c r="AD54" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE54" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6252,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>53</v>
@@ -6270,7 +6273,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N55" s="6">
         <v>4650075423233</v>
@@ -6292,7 +6295,7 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
@@ -6301,7 +6304,7 @@
         <v>49</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE55" s="7">
         <v>3.1480000000000002E-3</v>
@@ -6336,10 +6339,10 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>41</v>
@@ -6378,7 +6381,7 @@
         <v>520</v>
       </c>
       <c r="AL56" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM56" s="6"/>
     </row>
@@ -6396,16 +6399,16 @@
         <v>41</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6">
@@ -6414,27 +6417,27 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N57" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="N57" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="O57" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -6445,7 +6448,7 @@
         <v>49</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE57" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6457,10 +6460,10 @@
         <v>1</v>
       </c>
       <c r="AH57" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI57" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AI57" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="AJ57" s="6">
         <v>2</v>
@@ -6487,16 +6490,16 @@
         <v>41</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="H58" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6">
@@ -6505,27 +6508,27 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -6536,7 +6539,7 @@
         <v>49</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE58" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6548,10 +6551,10 @@
         <v>1</v>
       </c>
       <c r="AH58" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI58" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AI58" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="AJ58" s="6">
         <v>2</v>
@@ -6578,16 +6581,16 @@
         <v>41</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="H59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6">
@@ -6596,27 +6599,27 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
@@ -6627,7 +6630,7 @@
         <v>49</v>
       </c>
       <c r="AD59" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE59" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6639,10 +6642,10 @@
         <v>1</v>
       </c>
       <c r="AH59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI59" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AI59" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="AJ59" s="6">
         <v>2</v>
@@ -6670,10 +6673,10 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>41</v>
@@ -6712,7 +6715,7 @@
         <v>310</v>
       </c>
       <c r="AL60" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM60" s="6"/>
     </row>
@@ -6731,10 +6734,10 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>41</v>
@@ -6793,16 +6796,16 @@
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -6813,7 +6816,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
@@ -6830,7 +6833,7 @@
         <v>49</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE62" s="7">
         <v>0.1275</v>
@@ -6838,7 +6841,7 @@
       <c r="AF62" s="6"/>
       <c r="AG62" s="6"/>
       <c r="AH62" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6">
@@ -6848,7 +6851,7 @@
         <v>62</v>
       </c>
       <c r="AL62" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM62" s="6">
         <v>311</v>
@@ -6868,16 +6871,16 @@
         <v>41</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6">
@@ -6886,23 +6889,23 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
@@ -6913,13 +6916,13 @@
         <v>49</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE63" s="7"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6">
@@ -6947,16 +6950,16 @@
         <v>41</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6">
@@ -6965,23 +6968,23 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
@@ -6992,7 +6995,7 @@
         <v>49</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE64" s="7"/>
       <c r="AF64" s="6"/>
@@ -7025,10 +7028,10 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>41</v>
@@ -7067,7 +7070,7 @@
         <v>312</v>
       </c>
       <c r="AL65" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM65" s="6">
         <v>310</v>
@@ -7087,16 +7090,16 @@
         <v>41</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6">
@@ -7106,13 +7109,13 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
@@ -7120,7 +7123,7 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
@@ -7130,7 +7133,7 @@
         <v>49</v>
       </c>
       <c r="AD66" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE66" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7138,10 +7141,10 @@
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI66" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ66" s="6">
         <v>2</v>
@@ -7168,16 +7171,16 @@
         <v>41</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6">
@@ -7186,23 +7189,23 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
@@ -7213,7 +7216,7 @@
         <v>49</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE67" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7221,7 +7224,7 @@
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
       <c r="AH67" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6">
@@ -7249,16 +7252,16 @@
         <v>41</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -7269,23 +7272,23 @@
         <v>15</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
@@ -7296,7 +7299,7 @@
         <v>49</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE68" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7304,7 +7307,7 @@
       <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
       <c r="AH68" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6">
@@ -7333,10 +7336,10 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>41</v>
@@ -7375,7 +7378,7 @@
         <v>400</v>
       </c>
       <c r="AL69" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM69" s="6"/>
     </row>
@@ -7393,16 +7396,16 @@
         <v>41</v>
       </c>
       <c r="E70" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6">
@@ -7430,7 +7433,7 @@
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE70" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7466,13 +7469,13 @@
         <v>41</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>53</v>
@@ -7484,20 +7487,20 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q71" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -7505,7 +7508,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -7513,7 +7516,7 @@
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE71" s="7"/>
       <c r="AF71" s="6"/>
@@ -7545,16 +7548,16 @@
         <v>41</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6">
@@ -7567,7 +7570,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
@@ -7576,7 +7579,7 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -7584,7 +7587,7 @@
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE72" s="7">
         <v>2.5000000000000001E-2</v>
@@ -7620,16 +7623,16 @@
         <v>41</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6">
@@ -7642,7 +7645,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
@@ -7651,7 +7654,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -7661,7 +7664,7 @@
         <v>49</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE73" s="7"/>
       <c r="AF73" s="6"/>
@@ -7675,7 +7678,7 @@
         <v>69</v>
       </c>
       <c r="AL73" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM73" s="6">
         <v>68</v>
@@ -7695,13 +7698,13 @@
         <v>41</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>53</v>
@@ -7713,13 +7716,13 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="N74" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="O74" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6" t="s">
@@ -7734,7 +7737,7 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -7744,7 +7747,7 @@
         <v>49</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE74" s="7"/>
       <c r="AF74" s="6"/>
@@ -7776,13 +7779,13 @@
         <v>41</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F75" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>53</v>
@@ -7794,10 +7797,10 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N75" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
@@ -7813,7 +7816,7 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
@@ -7823,13 +7826,13 @@
         <v>49</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE75" s="7"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
       <c r="AH75" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6">
@@ -7857,16 +7860,16 @@
         <v>41</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="H76" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6">
@@ -7879,7 +7882,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -7888,7 +7891,7 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
@@ -7896,7 +7899,7 @@
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE76" s="7">
         <v>1.7500000000000002E-2</v>
@@ -7912,7 +7915,7 @@
         <v>680</v>
       </c>
       <c r="AL76" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM76" s="6">
         <v>400</v>
@@ -7932,16 +7935,16 @@
         <v>41</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="H77" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6">
@@ -7954,7 +7957,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -7963,7 +7966,7 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
@@ -7973,7 +7976,7 @@
         <v>49</v>
       </c>
       <c r="AD77" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE77" s="7"/>
       <c r="AF77" s="6"/>
@@ -7987,7 +7990,7 @@
         <v>72</v>
       </c>
       <c r="AL77" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM77" s="6">
         <v>680</v>
@@ -8007,13 +8010,13 @@
         <v>41</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>53</v>
@@ -8025,22 +8028,22 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q78" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -8048,7 +8051,7 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
@@ -8058,7 +8061,7 @@
         <v>49</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE78" s="7"/>
       <c r="AF78" s="6"/>
@@ -8090,13 +8093,13 @@
         <v>41</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F79" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>53</v>
@@ -8108,10 +8111,10 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="N79" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="N79" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -8127,7 +8130,7 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
@@ -8137,7 +8140,7 @@
         <v>49</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE79" s="7"/>
       <c r="AF79" s="6"/>
@@ -8169,16 +8172,16 @@
         <v>41</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F80" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="H80" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6">
@@ -8191,7 +8194,7 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
@@ -8200,7 +8203,7 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
@@ -8210,7 +8213,7 @@
         <v>49</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE80" s="7"/>
       <c r="AF80" s="6"/>
@@ -8224,7 +8227,7 @@
         <v>769</v>
       </c>
       <c r="AL80" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM80" s="6">
         <v>680</v>
@@ -8244,13 +8247,13 @@
         <v>41</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F81" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>53</v>
@@ -8262,22 +8265,22 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q81" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
@@ -8285,7 +8288,7 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
@@ -8295,7 +8298,7 @@
         <v>49</v>
       </c>
       <c r="AD81" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE81" s="7"/>
       <c r="AF81" s="6"/>
@@ -8327,13 +8330,13 @@
         <v>41</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F82" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>53</v>
@@ -8345,10 +8348,10 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N82" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="N82" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -8364,7 +8367,7 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
@@ -8374,13 +8377,13 @@
         <v>49</v>
       </c>
       <c r="AD82" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE82" s="7"/>
       <c r="AF82" s="6"/>
       <c r="AG82" s="6"/>
       <c r="AH82" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6">
@@ -8408,13 +8411,13 @@
         <v>41</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>53</v>
@@ -8426,20 +8429,20 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N83" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q83" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S83" s="6">
         <v>0.5</v>
@@ -8449,7 +8452,7 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
@@ -8459,7 +8462,7 @@
         <v>49</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE83" s="7">
         <v>0.03</v>
@@ -8494,10 +8497,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>41</v>
@@ -8536,7 +8539,7 @@
         <v>330</v>
       </c>
       <c r="AL84" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM84" s="6">
         <v>520</v>
@@ -8553,19 +8556,19 @@
         <v>40</v>
       </c>
       <c r="D85" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="H85" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6">
@@ -8574,27 +8577,27 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N85" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="N85" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="O85" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
@@ -8605,7 +8608,7 @@
         <v>49</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE85" s="7">
         <v>0.02</v>
@@ -8617,10 +8620,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI85" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI85" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ85" s="6">
         <v>2</v>
@@ -8644,19 +8647,19 @@
         <v>40</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="H86" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6">
@@ -8665,27 +8668,27 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
@@ -8696,7 +8699,7 @@
         <v>49</v>
       </c>
       <c r="AD86" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE86" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8708,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="AH86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI86" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI86" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ86" s="6">
         <v>2</v>
@@ -8735,19 +8738,19 @@
         <v>40</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="H87" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6">
@@ -8756,27 +8759,27 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
@@ -8787,7 +8790,7 @@
         <v>49</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE87" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8799,10 +8802,10 @@
         <v>1</v>
       </c>
       <c r="AH87" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI87" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI87" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ87" s="6">
         <v>2</v>
@@ -8826,19 +8829,19 @@
         <v>40</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F88" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6">
@@ -8847,27 +8850,27 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P88" s="6"/>
       <c r="Q88" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
@@ -8878,7 +8881,7 @@
         <v>49</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE88" s="7">
         <v>0.02</v>
@@ -8890,10 +8893,10 @@
         <v>1</v>
       </c>
       <c r="AH88" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI88" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI88" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ88" s="6">
         <v>2</v>
@@ -8917,19 +8920,19 @@
         <v>40</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F89" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="H89" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6">
@@ -8938,27 +8941,27 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
@@ -8969,7 +8972,7 @@
         <v>49</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE89" s="7">
         <v>0.03</v>
@@ -8981,10 +8984,10 @@
         <v>1</v>
       </c>
       <c r="AH89" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI89" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI89" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ89" s="6">
         <v>2</v>
@@ -9008,22 +9011,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -9034,7 +9037,7 @@
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
@@ -9058,7 +9061,7 @@
         <v>78</v>
       </c>
       <c r="AL90" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM90" s="6"/>
     </row>
@@ -9073,35 +9076,35 @@
         <v>40</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F91" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="H91" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="I91" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -9140,35 +9143,35 @@
         <v>40</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -9207,22 +9210,22 @@
         <v>40</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="H93" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="I93" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -9233,7 +9236,7 @@
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
@@ -9272,22 +9275,22 @@
         <v>40</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="H94" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -9298,7 +9301,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
@@ -9337,22 +9340,22 @@
         <v>40</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="H95" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -9363,7 +9366,7 @@
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
@@ -9402,37 +9405,37 @@
         <v>40</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F96" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="H96" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I96" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="N96" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
@@ -9456,7 +9459,7 @@
         <v>85</v>
       </c>
       <c r="AL96" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM96" s="6"/>
     </row>
@@ -9471,42 +9474,42 @@
         <v>40</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H97" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="I97" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
@@ -9538,20 +9541,20 @@
         <v>40</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="H98" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I98" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
@@ -9562,7 +9565,7 @@
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6AA83A-7458-4D95-9478-CEE8712992F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B5ABAA-E327-4EC7-8F35-3CD31C6597BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AM$98</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AM$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Petrol!$A$1:$AO$98</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="391">
   <si>
     <t>Sorting</t>
   </si>
@@ -1283,6 +1283,12 @@
   </si>
   <si>
     <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1330,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,8 +1343,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1361,12 +1373,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,6 +1425,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,57 +1816,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK98"/>
+  <dimension ref="A1:AMM98"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X72" sqref="X72"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4"/>
-    <col min="2" max="2" width="11.6640625" style="4"/>
-    <col min="3" max="3" width="10.6640625" style="4"/>
-    <col min="4" max="4" width="11.109375" style="4"/>
-    <col min="5" max="5" width="16.109375" style="4"/>
-    <col min="6" max="6" width="34.88671875" style="4"/>
-    <col min="7" max="7" width="31.6640625" style="4"/>
+    <col min="1" max="1" width="10.28515625" style="4"/>
+    <col min="2" max="2" width="11.7109375" style="4"/>
+    <col min="3" max="3" width="10.7109375" style="4"/>
+    <col min="4" max="4" width="11.140625" style="4"/>
+    <col min="5" max="5" width="16.140625" style="4"/>
+    <col min="6" max="6" width="34.85546875" style="4"/>
+    <col min="7" max="7" width="31.7109375" style="4"/>
     <col min="8" max="8" width="44" style="4"/>
-    <col min="9" max="9" width="16.21875" style="4"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="11" max="12" width="13.33203125" style="4"/>
-    <col min="13" max="14" width="39.5546875" style="4"/>
-    <col min="15" max="15" width="19.5546875" style="4"/>
-    <col min="16" max="16" width="19.77734375" style="4"/>
-    <col min="17" max="17" width="18.77734375" style="4"/>
-    <col min="18" max="18" width="13.77734375" style="4"/>
-    <col min="19" max="19" width="7" style="4"/>
-    <col min="20" max="20" width="14.5546875" style="4"/>
-    <col min="21" max="21" width="18.109375" style="4"/>
-    <col min="22" max="22" width="22.77734375" style="4"/>
-    <col min="23" max="23" width="22.5546875" style="4"/>
-    <col min="24" max="24" width="35.44140625" style="4"/>
-    <col min="25" max="25" width="20.21875" style="4"/>
-    <col min="26" max="26" width="26.109375" style="4"/>
-    <col min="27" max="27" width="26.77734375" style="4"/>
-    <col min="28" max="28" width="16" style="4"/>
-    <col min="29" max="29" width="13.44140625" style="4"/>
-    <col min="30" max="30" width="16.33203125" style="4"/>
-    <col min="31" max="31" width="14.77734375" style="4"/>
-    <col min="32" max="32" width="12.88671875" style="4"/>
-    <col min="33" max="33" width="13.109375" style="4"/>
-    <col min="34" max="34" width="64.109375" style="4"/>
-    <col min="35" max="35" width="31.21875" style="4"/>
-    <col min="36" max="36" width="7.5546875" style="4"/>
-    <col min="37" max="37" width="8.88671875" style="4"/>
-    <col min="38" max="38" width="10.88671875" style="4"/>
-    <col min="39" max="39" width="9" style="4"/>
-    <col min="40" max="1025" width="9.21875" style="4"/>
-    <col min="1026" max="16384" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="4"/>
+    <col min="12" max="12" width="8.85546875" style="4"/>
+    <col min="13" max="14" width="13.28515625" style="4"/>
+    <col min="15" max="16" width="39.5703125" style="4"/>
+    <col min="17" max="17" width="19.5703125" style="4"/>
+    <col min="18" max="18" width="19.7109375" style="4"/>
+    <col min="19" max="19" width="18.7109375" style="4"/>
+    <col min="20" max="20" width="13.7109375" style="4"/>
+    <col min="21" max="21" width="7" style="4"/>
+    <col min="22" max="22" width="14.5703125" style="4"/>
+    <col min="23" max="23" width="18.140625" style="4"/>
+    <col min="24" max="24" width="22.7109375" style="4"/>
+    <col min="25" max="25" width="22.5703125" style="4"/>
+    <col min="26" max="26" width="35.42578125" style="4"/>
+    <col min="27" max="27" width="20.28515625" style="4"/>
+    <col min="28" max="28" width="26.140625" style="4"/>
+    <col min="29" max="29" width="26.7109375" style="4"/>
+    <col min="30" max="30" width="16" style="4"/>
+    <col min="31" max="31" width="13.42578125" style="4"/>
+    <col min="32" max="32" width="16.28515625" style="4"/>
+    <col min="33" max="33" width="14.7109375" style="4"/>
+    <col min="34" max="34" width="12.85546875" style="4"/>
+    <col min="35" max="35" width="13.140625" style="4"/>
+    <col min="36" max="36" width="64.140625" style="4"/>
+    <col min="37" max="37" width="31.28515625" style="4"/>
+    <col min="38" max="38" width="7.5703125" style="4"/>
+    <col min="39" max="39" width="8.85546875" style="4"/>
+    <col min="40" max="40" width="10.85546875" style="4"/>
+    <col min="41" max="41" width="9" style="4"/>
+    <col min="42" max="1027" width="9.28515625" style="4"/>
+    <col min="1028" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,101 +1893,107 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1997,23 +2038,25 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="AG2" s="7"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6">
         <v>1</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AM2" s="6">
         <v>300</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2038,8 +2081,12 @@
       <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>218</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2058,31 +2105,33 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AG3" s="7"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6">
         <v>2</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AM3" s="6">
         <v>1</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2108,64 +2157,66 @@
         <v>53</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6">
         <v>3</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AM4" s="6">
         <v>2</v>
       </c>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="6">
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2191,64 +2242,66 @@
         <v>53</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AG5" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="6">
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2274,62 +2327,64 @@
         <v>53</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6">
         <v>3</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AM6" s="6">
         <v>602</v>
       </c>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="6">
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2355,64 +2410,66 @@
         <v>53</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AF7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AG7" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6">
         <v>3</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AM7" s="6">
         <v>6</v>
       </c>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="6">
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2438,64 +2495,66 @@
         <v>53</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6">
         <v>3</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AM8" s="6">
         <v>7</v>
       </c>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="6">
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2521,64 +2580,66 @@
         <v>53</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AG9" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6">
         <v>3</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AM9" s="6">
         <v>4</v>
       </c>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="6">
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2604,64 +2665,66 @@
         <v>53</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="6" t="s">
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AG10" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6">
         <v>3</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AM10" s="6">
         <v>5</v>
       </c>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="6">
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2687,62 +2750,64 @@
         <v>53</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="6">
+      <c r="P11" s="6">
         <v>42099697</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6" t="s">
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="6" t="s">
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AG11" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6">
         <v>3</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AM11" s="6">
         <v>603</v>
       </c>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="6">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2768,64 +2833,66 @@
         <v>53</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6">
         <v>3</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AM12" s="6">
         <v>14</v>
       </c>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="6">
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2851,64 +2918,66 @@
         <v>53</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="6" t="s">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AG13" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6">
         <v>3</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AM13" s="6">
         <v>11</v>
       </c>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="6">
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2934,62 +3003,64 @@
         <v>53</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AG14" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6">
         <v>3</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AM14" s="6">
         <v>606</v>
       </c>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="6">
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3015,62 +3086,64 @@
         <v>53</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6" t="s">
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AG15" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6">
         <v>3</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AM15" s="6">
         <v>607</v>
       </c>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="6">
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3096,62 +3169,64 @@
         <v>53</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="6">
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6">
         <v>3</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AM16" s="6">
         <v>605</v>
       </c>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="6">
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3177,64 +3252,66 @@
         <v>53</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="P17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="T17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="6" t="s">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6" t="s">
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="6" t="s">
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AF17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AG17" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6">
         <v>3</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AM17" s="6">
         <v>9</v>
       </c>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="6">
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3260,64 +3337,66 @@
         <v>53</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="6" t="s">
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AG18" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6">
         <v>3</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AM18" s="6">
         <v>17</v>
       </c>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="6">
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3343,64 +3422,66 @@
         <v>53</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="6" t="s">
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AG19" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6">
         <v>3</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AM19" s="6">
         <v>20</v>
       </c>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="6">
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3426,64 +3507,66 @@
         <v>53</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="s">
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AG20" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
         <v>3</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AM20" s="6">
         <v>19</v>
       </c>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="6">
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3509,62 +3592,64 @@
         <v>53</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>5449000253101</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="6" t="s">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AG21" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6">
         <v>3</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AM21" s="6">
         <v>601</v>
       </c>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="6">
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3590,64 +3675,66 @@
         <v>53</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6" t="s">
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="6" t="s">
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AG22" s="7">
         <v>5.5890000000000002E-3</v>
       </c>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="6">
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6">
         <v>3</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AM22" s="6">
         <v>18</v>
       </c>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="6">
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>30</v>
       </c>
@@ -3672,8 +3759,12 @@
       <c r="H23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3692,31 +3783,33 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="6" t="s">
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
+      <c r="AG23" s="7"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="6">
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6">
         <v>2</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AM23" s="6">
         <v>23</v>
       </c>
-      <c r="AL23" s="8" t="s">
+      <c r="AN23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AO23" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>31</v>
       </c>
@@ -3742,64 +3835,66 @@
         <v>53</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="6" t="s">
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AG24" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AJ24" s="6">
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6">
         <v>3</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AM24" s="6">
         <v>24</v>
       </c>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="6">
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>32</v>
       </c>
@@ -3825,64 +3920,66 @@
         <v>53</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="6" t="s">
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AG25" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-      <c r="AJ25" s="6">
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6">
         <v>3</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AM25" s="6">
         <v>25</v>
       </c>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="6">
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>33</v>
       </c>
@@ -3908,64 +4005,66 @@
         <v>53</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="6" t="s">
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AG26" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-      <c r="AJ26" s="6">
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6">
         <v>3</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AM26" s="6">
         <v>26</v>
       </c>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="6">
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>34</v>
       </c>
@@ -3991,64 +4090,66 @@
         <v>53</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="6">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="T27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6" t="s">
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="6" t="s">
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AF27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE27" s="7">
+      <c r="AG27" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="6">
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6">
         <v>3</v>
       </c>
-      <c r="AK27" s="6">
+      <c r="AM27" s="6">
         <v>27</v>
       </c>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="6">
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>35</v>
       </c>
@@ -4074,64 +4175,66 @@
         <v>53</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="T28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6" t="s">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
-      <c r="AC28" s="6" t="s">
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD28" s="6" t="s">
+      <c r="AF28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AG28" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AJ28" s="6">
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6">
         <v>3</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AM28" s="6">
         <v>28</v>
       </c>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="6">
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>36</v>
       </c>
@@ -4157,62 +4260,64 @@
         <v>53</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N29" s="6">
+      <c r="P29" s="6">
         <v>5449000152190</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="T29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="6" t="s">
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6" t="s">
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="6" t="s">
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AG29" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
-      <c r="AJ29" s="6">
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6">
         <v>3</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AM29" s="6">
         <v>653</v>
       </c>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="6">
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>37</v>
       </c>
@@ -4237,8 +4342,12 @@
       <c r="H30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="I30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>231</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -4257,31 +4366,33 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="6" t="s">
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AF30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
+      <c r="AG30" s="7"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
-      <c r="AJ30" s="6">
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6">
         <v>2</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AM30" s="6">
         <v>29</v>
       </c>
-      <c r="AL30" s="8" t="s">
+      <c r="AN30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AM30" s="6">
+      <c r="AO30" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>38</v>
       </c>
@@ -4307,64 +4418,66 @@
         <v>53</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="T31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6" t="s">
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="6" t="s">
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="7">
+      <c r="AG31" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-      <c r="AJ31" s="6">
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6">
         <v>3</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AM31" s="6">
         <v>30</v>
       </c>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="6">
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>39</v>
       </c>
@@ -4390,64 +4503,66 @@
         <v>53</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="6">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
         <v>1</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="P32" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="T32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="6" t="s">
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6" t="s">
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
-      <c r="AC32" s="6" t="s">
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AF32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE32" s="7">
+      <c r="AG32" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-      <c r="AJ32" s="6">
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6">
         <v>3</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AM32" s="6">
         <v>31</v>
       </c>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="6">
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>40</v>
       </c>
@@ -4473,64 +4588,66 @@
         <v>53</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="T33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="6" t="s">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6" t="s">
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="6" t="s">
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AF33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AG33" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
-      <c r="AJ33" s="6">
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6">
         <v>3</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AM33" s="6">
         <v>33</v>
       </c>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="6">
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>41</v>
       </c>
@@ -4556,64 +4673,66 @@
         <v>53</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="6">
+      <c r="P34" s="6">
         <v>5060517888794</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="T34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="6" t="s">
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6" t="s">
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="6" t="s">
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AF34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AG34" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
-      <c r="AJ34" s="6">
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6">
         <v>3</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AM34" s="6">
         <v>35</v>
       </c>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="6">
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42</v>
       </c>
@@ -4639,64 +4758,66 @@
         <v>53</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="6">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="P35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="T35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="6" t="s">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6" t="s">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="6" t="s">
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AG35" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
-      <c r="AJ35" s="6">
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6">
         <v>3</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AM35" s="6">
         <v>34</v>
       </c>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="6">
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43</v>
       </c>
@@ -4722,64 +4843,66 @@
         <v>53</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="6">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="P36" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="T36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="6" t="s">
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6" t="s">
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
-      <c r="AC36" s="6" t="s">
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AF36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AG36" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6">
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6">
         <v>3</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AM36" s="6">
         <v>67</v>
       </c>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="6">
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>44</v>
       </c>
@@ -4805,64 +4928,66 @@
         <v>53</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="6">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <v>1</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="P37" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="T37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="6" t="s">
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6" t="s">
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="6" t="s">
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AF37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE37" s="7">
+      <c r="AG37" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-      <c r="AJ37" s="6">
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6">
         <v>3</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AM37" s="6">
         <v>32</v>
       </c>
-      <c r="AL37" s="9"/>
-      <c r="AM37" s="6">
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45</v>
       </c>
@@ -4887,8 +5012,12 @@
       <c r="H38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="I38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>347</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -4907,31 +5036,33 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="6" t="s">
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AF38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
+      <c r="AG38" s="7"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
-      <c r="AJ38" s="6">
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6">
         <v>2</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AM38" s="6">
         <v>36</v>
       </c>
-      <c r="AL38" s="8" t="s">
+      <c r="AN38" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AO38" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>46</v>
       </c>
@@ -4957,64 +5088,66 @@
         <v>53</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="6" t="s">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6" t="s">
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="6" t="s">
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE39" s="7">
+      <c r="AG39" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="6">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6">
         <v>3</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AM39" s="6">
         <v>39</v>
       </c>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="6">
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>47</v>
       </c>
@@ -5040,64 +5173,66 @@
         <v>53</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="P40" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="6" t="s">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6" t="s">
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="6" t="s">
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AF40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE40" s="7">
+      <c r="AG40" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
-      <c r="AJ40" s="6">
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6">
         <v>3</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AM40" s="6">
         <v>37</v>
       </c>
-      <c r="AL40" s="9"/>
-      <c r="AM40" s="6">
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>48</v>
       </c>
@@ -5123,64 +5258,66 @@
         <v>53</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="6">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="T41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
       <c r="U41" s="6"/>
-      <c r="V41" s="6" t="s">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6" t="s">
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
-      <c r="AC41" s="6" t="s">
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD41" s="6" t="s">
+      <c r="AF41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE41" s="7">
+      <c r="AG41" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
-      <c r="AJ41" s="6">
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6">
         <v>3</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AM41" s="6">
         <v>38</v>
       </c>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="6">
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>49</v>
       </c>
@@ -5206,64 +5343,66 @@
         <v>53</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="P42" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="T42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="6" t="s">
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6" t="s">
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
-      <c r="AC42" s="6" t="s">
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE42" s="7">
+      <c r="AG42" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="6">
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6">
         <v>3</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AM42" s="6">
         <v>40</v>
       </c>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="6">
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>50</v>
       </c>
@@ -5289,64 +5428,66 @@
         <v>53</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="6">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6" t="s">
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="T43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
       <c r="U43" s="6"/>
-      <c r="V43" s="6" t="s">
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6" t="s">
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
-      <c r="AC43" s="6" t="s">
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD43" s="6" t="s">
+      <c r="AF43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="7">
+      <c r="AG43" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
-      <c r="AJ43" s="6">
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6">
         <v>3</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AM43" s="6">
         <v>41</v>
       </c>
-      <c r="AL43" s="9"/>
-      <c r="AM43" s="6">
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>52</v>
       </c>
@@ -5371,8 +5512,12 @@
       <c r="H44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="I44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -5391,31 +5536,33 @@
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
-      <c r="AC44" s="6" t="s">
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD44" s="6" t="s">
+      <c r="AF44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
+      <c r="AG44" s="7"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
-      <c r="AJ44" s="6">
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6">
         <v>2</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AM44" s="6">
         <v>43</v>
       </c>
-      <c r="AL44" s="8" t="s">
+      <c r="AN44" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="AM44" s="6">
+      <c r="AO44" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>53</v>
       </c>
@@ -5441,64 +5588,66 @@
         <v>53</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="6">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R45" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
       <c r="U45" s="6"/>
-      <c r="V45" s="6" t="s">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6" t="s">
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
-      <c r="AC45" s="6" t="s">
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD45" s="6" t="s">
+      <c r="AF45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE45" s="7">
+      <c r="AG45" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
-      <c r="AJ45" s="6">
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6">
         <v>3</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AM45" s="6">
         <v>44</v>
       </c>
-      <c r="AL45" s="9"/>
-      <c r="AM45" s="6">
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>54</v>
       </c>
@@ -5524,64 +5673,66 @@
         <v>53</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
       <c r="U46" s="6"/>
-      <c r="V46" s="6" t="s">
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6" t="s">
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
-      <c r="AC46" s="6" t="s">
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AF46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE46" s="7">
+      <c r="AG46" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
-      <c r="AJ46" s="6">
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6">
         <v>3</v>
       </c>
-      <c r="AK46" s="6">
+      <c r="AM46" s="6">
         <v>45</v>
       </c>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="6">
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>55</v>
       </c>
@@ -5607,64 +5758,66 @@
         <v>53</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="P47" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="T47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
       <c r="U47" s="6"/>
-      <c r="V47" s="6" t="s">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6" t="s">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
-      <c r="AC47" s="6" t="s">
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD47" s="6" t="s">
+      <c r="AF47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE47" s="7">
+      <c r="AG47" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
-      <c r="AJ47" s="6">
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6">
         <v>3</v>
       </c>
-      <c r="AK47" s="6">
+      <c r="AM47" s="6">
         <v>46</v>
       </c>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="6">
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>56</v>
       </c>
@@ -5690,64 +5843,66 @@
         <v>53</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="6">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="P48" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="T48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
       <c r="U48" s="6"/>
-      <c r="V48" s="6" t="s">
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6" t="s">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
-      <c r="AC48" s="6" t="s">
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD48" s="6" t="s">
+      <c r="AF48" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE48" s="7">
+      <c r="AG48" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
-      <c r="AJ48" s="6">
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6">
         <v>3</v>
       </c>
-      <c r="AK48" s="6">
+      <c r="AM48" s="6">
         <v>47</v>
       </c>
-      <c r="AL48" s="9"/>
-      <c r="AM48" s="6">
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>57</v>
       </c>
@@ -5773,64 +5928,66 @@
         <v>53</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="6">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="P49" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6" t="s">
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R49" s="6" t="s">
+      <c r="T49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
-      <c r="V49" s="6" t="s">
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6" t="s">
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
-      <c r="AC49" s="6" t="s">
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD49" s="6" t="s">
+      <c r="AF49" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE49" s="7">
+      <c r="AG49" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
-      <c r="AJ49" s="6">
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6">
         <v>3</v>
       </c>
-      <c r="AK49" s="6">
+      <c r="AM49" s="6">
         <v>48</v>
       </c>
-      <c r="AL49" s="9"/>
-      <c r="AM49" s="6">
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>58</v>
       </c>
@@ -5856,62 +6013,64 @@
         <v>53</v>
       </c>
       <c r="I50" s="6"/>
-      <c r="J50" s="6">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6">
         <v>1</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="P50" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6" t="s">
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R50" s="6" t="s">
+      <c r="T50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-      <c r="V50" s="6" t="s">
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6" t="s">
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
-      <c r="AD50" s="6" t="s">
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE50" s="7">
+      <c r="AG50" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
-      <c r="AJ50" s="6">
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6">
         <v>3</v>
       </c>
-      <c r="AK50" s="6">
+      <c r="AM50" s="6">
         <v>104</v>
       </c>
-      <c r="AL50" s="9"/>
-      <c r="AM50" s="6">
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>59</v>
       </c>
@@ -5937,62 +6096,64 @@
         <v>53</v>
       </c>
       <c r="I51" s="6"/>
-      <c r="J51" s="6">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="P51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6" t="s">
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R51" s="6" t="s">
+      <c r="T51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
-      <c r="V51" s="6" t="s">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6" t="s">
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
-      <c r="AD51" s="6" t="s">
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="7">
+      <c r="AG51" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
-      <c r="AJ51" s="6">
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6">
         <v>3</v>
       </c>
-      <c r="AK51" s="6">
+      <c r="AM51" s="6">
         <v>105</v>
       </c>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="6">
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>60</v>
       </c>
@@ -6018,64 +6179,66 @@
         <v>53</v>
       </c>
       <c r="I52" s="6"/>
-      <c r="J52" s="6">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="P52" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6" t="s">
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R52" s="6" t="s">
+      <c r="T52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="6" t="s">
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6" t="s">
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
-      <c r="AC52" s="6" t="s">
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD52" s="6" t="s">
+      <c r="AF52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE52" s="7">
+      <c r="AG52" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
-      <c r="AJ52" s="6">
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6">
         <v>3</v>
       </c>
-      <c r="AK52" s="6">
+      <c r="AM52" s="6">
         <v>52</v>
       </c>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="6">
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>61</v>
       </c>
@@ -6101,64 +6264,66 @@
         <v>53</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="6">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="P53" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6" t="s">
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R53" s="6" t="s">
+      <c r="T53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="6" t="s">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6" t="s">
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
-      <c r="AC53" s="6" t="s">
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD53" s="6" t="s">
+      <c r="AF53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE53" s="7">
+      <c r="AG53" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
-      <c r="AJ53" s="6">
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6">
         <v>3</v>
       </c>
-      <c r="AK53" s="6">
+      <c r="AM53" s="6">
         <v>50</v>
       </c>
-      <c r="AL53" s="9"/>
-      <c r="AM53" s="6">
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>62</v>
       </c>
@@ -6184,64 +6349,66 @@
         <v>53</v>
       </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="6">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N54" s="6">
+      <c r="P54" s="6">
         <v>4650075423257</v>
       </c>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6" t="s">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="T54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="6" t="s">
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6" t="s">
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
-      <c r="AC54" s="6" t="s">
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD54" s="6" t="s">
+      <c r="AF54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE54" s="7">
+      <c r="AG54" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
-      <c r="AJ54" s="6">
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6">
         <v>3</v>
       </c>
-      <c r="AK54" s="6">
+      <c r="AM54" s="6">
         <v>49</v>
       </c>
-      <c r="AL54" s="9"/>
-      <c r="AM54" s="6">
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>63</v>
       </c>
@@ -6267,64 +6434,66 @@
         <v>53</v>
       </c>
       <c r="I55" s="6"/>
-      <c r="J55" s="6">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6" t="s">
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N55" s="6">
+      <c r="P55" s="6">
         <v>4650075423233</v>
       </c>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6" t="s">
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R55" s="6" t="s">
+      <c r="T55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
       <c r="U55" s="6"/>
-      <c r="V55" s="6" t="s">
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6" t="s">
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
-      <c r="AC55" s="6" t="s">
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD55" s="6" t="s">
+      <c r="AF55" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE55" s="7">
+      <c r="AG55" s="7">
         <v>3.1480000000000002E-3</v>
       </c>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
-      <c r="AJ55" s="6">
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6">
         <v>3</v>
       </c>
-      <c r="AK55" s="6">
+      <c r="AM55" s="6">
         <v>53</v>
       </c>
-      <c r="AL55" s="9"/>
-      <c r="AM55" s="6">
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>65</v>
       </c>
@@ -6369,23 +6538,25 @@
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="7"/>
+      <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
+      <c r="AG56" s="7"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
-      <c r="AJ56" s="6">
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6">
         <v>1</v>
       </c>
-      <c r="AK56" s="6">
+      <c r="AM56" s="6">
         <v>520</v>
       </c>
-      <c r="AL56" s="8" t="s">
+      <c r="AN56" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AM56" s="6"/>
+      <c r="AO56" s="6"/>
     </row>
-    <row r="57" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>66</v>
       </c>
@@ -6410,73 +6581,79 @@
       <c r="H57" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6">
+      <c r="I57" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6">
         <v>0.5</v>
       </c>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6" t="s">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="P57" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6" t="s">
+      <c r="R57" s="6"/>
+      <c r="S57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R57" s="6" t="s">
+      <c r="T57" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="6" t="s">
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
-      <c r="AC57" s="6" t="s">
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD57" s="6" t="s">
+      <c r="AF57" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE57" s="7">
+      <c r="AG57" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF57" s="6">
+      <c r="AH57" s="6">
         <v>0</v>
       </c>
-      <c r="AG57" s="6">
+      <c r="AI57" s="6">
         <v>1</v>
       </c>
-      <c r="AH57" s="6" t="s">
+      <c r="AJ57" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AI57" s="6" t="s">
+      <c r="AK57" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AJ57" s="6">
+      <c r="AL57" s="6">
         <v>2</v>
       </c>
-      <c r="AK57" s="6">
+      <c r="AM57" s="6">
         <v>54</v>
       </c>
-      <c r="AL57" s="9"/>
-      <c r="AM57" s="6">
+      <c r="AN57" s="9"/>
+      <c r="AO57" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>67</v>
       </c>
@@ -6501,73 +6678,79 @@
       <c r="H58" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6">
+      <c r="I58" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6">
         <v>0.15</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="P58" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6" t="s">
+      <c r="R58" s="6"/>
+      <c r="S58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R58" s="6" t="s">
+      <c r="T58" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-      <c r="W58" s="6" t="s">
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
-      <c r="AC58" s="6" t="s">
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD58" s="6" t="s">
+      <c r="AF58" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE58" s="7">
+      <c r="AG58" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF58" s="6">
+      <c r="AH58" s="6">
         <v>0</v>
       </c>
-      <c r="AG58" s="6">
+      <c r="AI58" s="6">
         <v>1</v>
       </c>
-      <c r="AH58" s="6" t="s">
+      <c r="AJ58" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AI58" s="6" t="s">
+      <c r="AK58" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AJ58" s="6">
+      <c r="AL58" s="6">
         <v>2</v>
       </c>
-      <c r="AK58" s="6">
+      <c r="AM58" s="6">
         <v>55</v>
       </c>
-      <c r="AL58" s="9"/>
-      <c r="AM58" s="6">
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>68</v>
       </c>
@@ -6592,73 +6775,79 @@
       <c r="H59" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6">
+      <c r="I59" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6">
         <v>0.2</v>
       </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N59" s="6" t="s">
+      <c r="P59" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="O59" s="6" t="s">
+      <c r="Q59" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6" t="s">
+      <c r="R59" s="6"/>
+      <c r="S59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R59" s="6" t="s">
+      <c r="T59" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
-      <c r="W59" s="6" t="s">
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
-      <c r="AC59" s="6" t="s">
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD59" s="6" t="s">
+      <c r="AF59" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE59" s="7">
+      <c r="AG59" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF59" s="6">
+      <c r="AH59" s="6">
         <v>0</v>
       </c>
-      <c r="AG59" s="6">
+      <c r="AI59" s="6">
         <v>1</v>
       </c>
-      <c r="AH59" s="6" t="s">
+      <c r="AJ59" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AI59" s="6" t="s">
+      <c r="AK59" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AJ59" s="6">
+      <c r="AL59" s="6">
         <v>2</v>
       </c>
-      <c r="AK59" s="6">
+      <c r="AM59" s="6">
         <v>56</v>
       </c>
-      <c r="AL59" s="9"/>
-      <c r="AM59" s="6">
+      <c r="AN59" s="9"/>
+      <c r="AO59" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>71</v>
       </c>
@@ -6703,23 +6892,25 @@
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
-      <c r="AE60" s="7"/>
+      <c r="AE60" s="6"/>
       <c r="AF60" s="6"/>
-      <c r="AG60" s="6"/>
+      <c r="AG60" s="7"/>
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
-      <c r="AJ60" s="6">
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6">
         <v>1</v>
       </c>
-      <c r="AK60" s="6">
+      <c r="AM60" s="6">
         <v>310</v>
       </c>
-      <c r="AL60" s="8" t="s">
+      <c r="AN60" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AM60" s="6"/>
+      <c r="AO60" s="6"/>
     </row>
-    <row r="61" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>72</v>
       </c>
@@ -6764,25 +6955,27 @@
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
-      <c r="AE61" s="7"/>
+      <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
+      <c r="AG61" s="7"/>
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
-      <c r="AJ61" s="6">
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6">
         <v>1</v>
       </c>
-      <c r="AK61" s="6">
+      <c r="AM61" s="6">
         <v>311</v>
       </c>
-      <c r="AL61" s="9">
+      <c r="AN61" s="9">
         <v>62</v>
       </c>
-      <c r="AM61" s="6">
+      <c r="AO61" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>73</v>
       </c>
@@ -6815,11 +7008,11 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
-      <c r="Q62" s="6" t="s">
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
@@ -6829,35 +7022,37 @@
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
-      <c r="AC62" s="6" t="s">
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD62" s="6" t="s">
+      <c r="AF62" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE62" s="7">
+      <c r="AG62" s="7">
         <v>0.1275</v>
       </c>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="6" t="s">
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="6"/>
+      <c r="AJ62" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AI62" s="6"/>
-      <c r="AJ62" s="6">
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="6">
         <v>2</v>
       </c>
-      <c r="AK62" s="6">
+      <c r="AM62" s="6">
         <v>62</v>
       </c>
-      <c r="AL62" s="8" t="s">
+      <c r="AN62" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AM62" s="6">
+      <c r="AO62" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>74</v>
       </c>
@@ -6883,60 +7078,62 @@
         <v>246</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="6">
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6">
         <v>0.5</v>
       </c>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6" t="s">
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="P63" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="6" t="s">
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="6" t="s">
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
-      <c r="AC63" s="6" t="s">
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD63" s="6" t="s">
+      <c r="AF63" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6" t="s">
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AI63" s="6"/>
-      <c r="AJ63" s="6">
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6">
         <v>3</v>
       </c>
-      <c r="AK63" s="6">
+      <c r="AM63" s="6">
         <v>63</v>
       </c>
-      <c r="AL63" s="9"/>
-      <c r="AM63" s="6">
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>75</v>
       </c>
@@ -6962,58 +7159,60 @@
         <v>253</v>
       </c>
       <c r="I64" s="6"/>
-      <c r="J64" s="6">
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6">
         <v>0.01</v>
       </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6" t="s">
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N64" s="6" t="s">
+      <c r="P64" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
-      <c r="R64" s="6" t="s">
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
-      <c r="W64" s="6" t="s">
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
-      <c r="AC64" s="6" t="s">
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD64" s="6" t="s">
+      <c r="AF64" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE64" s="7"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
+      <c r="AG64" s="7"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AJ64" s="6">
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6">
         <v>3</v>
       </c>
-      <c r="AK64" s="6">
+      <c r="AM64" s="6">
         <v>64</v>
       </c>
-      <c r="AL64" s="9"/>
-      <c r="AM64" s="6">
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>76</v>
       </c>
@@ -7058,25 +7257,27 @@
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
-      <c r="AE65" s="7"/>
+      <c r="AE65" s="6"/>
       <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
+      <c r="AG65" s="7"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AJ65" s="6">
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6">
         <v>1</v>
       </c>
-      <c r="AK65" s="6">
+      <c r="AM65" s="6">
         <v>312</v>
       </c>
-      <c r="AL65" s="8" t="s">
+      <c r="AN65" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="AM65" s="6">
+      <c r="AO65" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>77</v>
       </c>
@@ -7102,62 +7303,64 @@
         <v>261</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="6">
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6">
         <v>1</v>
       </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="6" t="s">
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
-      <c r="R66" s="6" t="s">
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
-      <c r="X66" s="6" t="s">
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
-      <c r="AC66" s="6" t="s">
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD66" s="6" t="s">
+      <c r="AF66" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE66" s="7">
+      <c r="AG66" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6" t="s">
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="AI66" s="6" t="s">
+      <c r="AK66" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AJ66" s="6">
+      <c r="AL66" s="6">
         <v>2</v>
       </c>
-      <c r="AK66" s="6">
+      <c r="AM66" s="6">
         <v>65</v>
       </c>
-      <c r="AL66" s="9"/>
-      <c r="AM66" s="6">
+      <c r="AN66" s="9"/>
+      <c r="AO66" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>78</v>
       </c>
@@ -7183,62 +7386,64 @@
         <v>268</v>
       </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="6">
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6">
         <v>1</v>
       </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6" t="s">
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="P67" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6" t="s">
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
-      <c r="W67" s="6" t="s">
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
-      <c r="AC67" s="6" t="s">
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD67" s="6" t="s">
+      <c r="AF67" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE67" s="7">
+      <c r="AG67" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="6" t="s">
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="AI67" s="6"/>
-      <c r="AJ67" s="6">
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="6">
         <v>2</v>
       </c>
-      <c r="AK67" s="6">
+      <c r="AM67" s="6">
         <v>66</v>
       </c>
-      <c r="AL67" s="9"/>
-      <c r="AM67" s="6">
+      <c r="AN67" s="9"/>
+      <c r="AO67" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>79</v>
       </c>
@@ -7265,63 +7470,65 @@
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6">
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6">
         <v>1</v>
       </c>
-      <c r="L68" s="6">
+      <c r="N68" s="6">
         <v>15</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="O68" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N68" s="6" t="s">
+      <c r="P68" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
-      <c r="R68" s="6" t="s">
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
-      <c r="W68" s="6" t="s">
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
-      <c r="AC68" s="6" t="s">
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD68" s="6" t="s">
+      <c r="AF68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE68" s="7">
+      <c r="AG68" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF68" s="6"/>
-      <c r="AG68" s="6"/>
-      <c r="AH68" s="6" t="s">
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="AI68" s="6"/>
-      <c r="AJ68" s="6">
+      <c r="AK68" s="6"/>
+      <c r="AL68" s="6">
         <v>2</v>
       </c>
-      <c r="AK68" s="6">
+      <c r="AM68" s="6">
         <v>167</v>
       </c>
-      <c r="AL68" s="9"/>
-      <c r="AM68" s="6">
+      <c r="AN68" s="9"/>
+      <c r="AO68" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>80</v>
       </c>
@@ -7366,23 +7573,25 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
-      <c r="AE69" s="7"/>
+      <c r="AE69" s="6"/>
       <c r="AF69" s="6"/>
-      <c r="AG69" s="6"/>
+      <c r="AG69" s="7"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AJ69" s="6">
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6">
         <v>1</v>
       </c>
-      <c r="AK69" s="6">
+      <c r="AM69" s="6">
         <v>400</v>
       </c>
-      <c r="AL69" s="8" t="s">
+      <c r="AN69" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AM69" s="6"/>
+      <c r="AO69" s="6"/>
     </row>
-    <row r="70" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>81</v>
       </c>
@@ -7408,20 +7617,20 @@
         <v>279</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="6">
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6">
         <v>1</v>
       </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="6" t="s">
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
@@ -7432,30 +7641,32 @@
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
-      <c r="AD70" s="6" t="s">
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE70" s="7">
+      <c r="AG70" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AJ70" s="6">
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6">
         <v>2</v>
       </c>
-      <c r="AK70" s="6">
+      <c r="AM70" s="6">
         <v>130</v>
       </c>
-      <c r="AL70" s="9">
+      <c r="AN70" s="9">
         <v>57</v>
       </c>
-      <c r="AM70" s="6">
+      <c r="AO70" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>82</v>
       </c>
@@ -7481,60 +7692,62 @@
         <v>53</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="6">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6">
         <v>4</v>
       </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6" t="s">
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N71" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="O71" s="6"/>
       <c r="P71" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="Q71" s="6" t="s">
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="S71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R71" s="6" t="s">
+      <c r="T71" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="6" t="s">
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
-      <c r="AD71" s="6" t="s">
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="6"/>
-      <c r="AG71" s="6"/>
+      <c r="AG71" s="7"/>
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
-      <c r="AJ71" s="6">
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6">
         <v>3</v>
       </c>
-      <c r="AK71" s="6">
+      <c r="AM71" s="6">
         <v>57</v>
       </c>
-      <c r="AL71" s="9"/>
-      <c r="AM71" s="6">
+      <c r="AN71" s="9"/>
+      <c r="AO71" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>84</v>
       </c>
@@ -7560,56 +7773,58 @@
         <v>287</v>
       </c>
       <c r="I72" s="6"/>
-      <c r="J72" s="6">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="6" t="s">
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
-      <c r="X72" s="6" t="s">
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
-      <c r="AD72" s="6" t="s">
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE72" s="7">
+      <c r="AG72" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="6"/>
-      <c r="AH72" s="6"/>
+      <c r="AH72" s="5"/>
       <c r="AI72" s="6"/>
-      <c r="AJ72" s="6">
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6"/>
+      <c r="AL72" s="6">
         <v>2</v>
       </c>
-      <c r="AK72" s="6">
+      <c r="AM72" s="6">
         <v>68</v>
       </c>
-      <c r="AL72" s="9">
+      <c r="AN72" s="9">
         <v>69</v>
       </c>
-      <c r="AM72" s="6">
+      <c r="AO72" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>85</v>
       </c>
@@ -7635,56 +7850,58 @@
         <v>292</v>
       </c>
       <c r="I73" s="6"/>
-      <c r="J73" s="6">
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6">
         <v>2</v>
       </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="6" t="s">
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
-      <c r="X73" s="6" t="s">
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
-      <c r="AC73" s="6" t="s">
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD73" s="6" t="s">
+      <c r="AF73" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="6"/>
-      <c r="AG73" s="6"/>
+      <c r="AG73" s="7"/>
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
-      <c r="AJ73" s="6">
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6">
         <v>3</v>
       </c>
-      <c r="AK73" s="6">
+      <c r="AM73" s="6">
         <v>69</v>
       </c>
-      <c r="AL73" s="8" t="s">
+      <c r="AN73" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="AM73" s="6">
+      <c r="AO73" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>86</v>
       </c>
@@ -7710,62 +7927,64 @@
         <v>53</v>
       </c>
       <c r="I74" s="6"/>
-      <c r="J74" s="6">
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6" t="s">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="P74" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6" t="s">
+      <c r="R74" s="6"/>
+      <c r="S74" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R74" s="6" t="s">
+      <c r="T74" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="6" t="s">
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
-      <c r="AC74" s="6" t="s">
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD74" s="6" t="s">
+      <c r="AF74" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="6"/>
-      <c r="AG74" s="6"/>
+      <c r="AG74" s="7"/>
       <c r="AH74" s="6"/>
       <c r="AI74" s="6"/>
-      <c r="AJ74" s="6">
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6">
         <v>4</v>
       </c>
-      <c r="AK74" s="6">
+      <c r="AM74" s="6">
         <v>70</v>
       </c>
-      <c r="AL74" s="9"/>
-      <c r="AM74" s="6">
+      <c r="AN74" s="9"/>
+      <c r="AO74" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>87</v>
       </c>
@@ -7791,62 +8010,64 @@
         <v>53</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="6">
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6">
         <v>1</v>
       </c>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6" t="s">
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="N75" s="6" t="s">
+      <c r="P75" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6" t="s">
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R75" s="6" t="s">
+      <c r="T75" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="6" t="s">
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
-      <c r="AC75" s="6" t="s">
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD75" s="6" t="s">
+      <c r="AF75" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="6"/>
-      <c r="AG75" s="6"/>
-      <c r="AH75" s="6" t="s">
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="AI75" s="6"/>
-      <c r="AJ75" s="6">
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6">
         <v>4</v>
       </c>
-      <c r="AK75" s="6">
+      <c r="AM75" s="6">
         <v>71</v>
       </c>
-      <c r="AL75" s="9"/>
-      <c r="AM75" s="6">
+      <c r="AN75" s="9"/>
+      <c r="AO75" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>88</v>
       </c>
@@ -7872,56 +8093,58 @@
         <v>287</v>
       </c>
       <c r="I76" s="6"/>
-      <c r="J76" s="6">
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6">
         <v>1</v>
       </c>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6" t="s">
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
-      <c r="X76" s="6" t="s">
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
-      <c r="AD76" s="6" t="s">
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE76" s="7">
+      <c r="AG76" s="7">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="6"/>
-      <c r="AH76" s="6"/>
+      <c r="AH76" s="5"/>
       <c r="AI76" s="6"/>
-      <c r="AJ76" s="6">
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="6">
         <v>2</v>
       </c>
-      <c r="AK76" s="6">
+      <c r="AM76" s="6">
         <v>680</v>
       </c>
-      <c r="AL76" s="8" t="s">
+      <c r="AN76" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AM76" s="6">
+      <c r="AO76" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>89</v>
       </c>
@@ -7947,56 +8170,58 @@
         <v>292</v>
       </c>
       <c r="I77" s="6"/>
-      <c r="J77" s="6">
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6">
         <v>2</v>
       </c>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
-      <c r="Q77" s="6" t="s">
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
-      <c r="X77" s="6" t="s">
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
-      <c r="AC77" s="6" t="s">
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD77" s="6" t="s">
+      <c r="AF77" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE77" s="7"/>
-      <c r="AF77" s="6"/>
-      <c r="AG77" s="6"/>
+      <c r="AG77" s="7"/>
       <c r="AH77" s="6"/>
       <c r="AI77" s="6"/>
-      <c r="AJ77" s="6">
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6">
         <v>3</v>
       </c>
-      <c r="AK77" s="6">
+      <c r="AM77" s="6">
         <v>72</v>
       </c>
-      <c r="AL77" s="8" t="s">
+      <c r="AN77" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="AM77" s="6">
+      <c r="AO77" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>90</v>
       </c>
@@ -8022,64 +8247,66 @@
         <v>53</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" s="6">
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6">
         <v>1</v>
       </c>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6" t="s">
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>312</v>
       </c>
       <c r="Q78" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="S78" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R78" s="6" t="s">
+      <c r="T78" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
-      <c r="X78" s="6" t="s">
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
-      <c r="AC78" s="6" t="s">
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD78" s="6" t="s">
+      <c r="AF78" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE78" s="7"/>
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
+      <c r="AG78" s="7"/>
       <c r="AH78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AJ78" s="6">
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6">
         <v>4</v>
       </c>
-      <c r="AK78" s="6">
+      <c r="AM78" s="6">
         <v>73</v>
       </c>
-      <c r="AL78" s="9"/>
-      <c r="AM78" s="6">
+      <c r="AN78" s="9"/>
+      <c r="AO78" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>91</v>
       </c>
@@ -8105,60 +8332,62 @@
         <v>53</v>
       </c>
       <c r="I79" s="6"/>
-      <c r="J79" s="6">
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6">
         <v>1</v>
       </c>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6" t="s">
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="N79" s="6" t="s">
+      <c r="P79" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6" t="s">
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R79" s="6" t="s">
+      <c r="T79" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
-      <c r="X79" s="6" t="s">
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
-      <c r="AC79" s="6" t="s">
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD79" s="6" t="s">
+      <c r="AF79" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
+      <c r="AG79" s="7"/>
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
-      <c r="AJ79" s="6">
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6">
         <v>4</v>
       </c>
-      <c r="AK79" s="6">
+      <c r="AM79" s="6">
         <v>74</v>
       </c>
-      <c r="AL79" s="9"/>
-      <c r="AM79" s="6">
+      <c r="AN79" s="9"/>
+      <c r="AO79" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>92</v>
       </c>
@@ -8184,56 +8413,58 @@
         <v>292</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="6">
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6">
         <v>2</v>
       </c>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
-      <c r="Q80" s="6" t="s">
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
-      <c r="X80" s="6" t="s">
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
-      <c r="AC80" s="6" t="s">
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD80" s="6" t="s">
+      <c r="AF80" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE80" s="7"/>
-      <c r="AF80" s="6"/>
-      <c r="AG80" s="6"/>
+      <c r="AG80" s="7"/>
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
-      <c r="AJ80" s="6">
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="6">
         <v>3</v>
       </c>
-      <c r="AK80" s="6">
+      <c r="AM80" s="6">
         <v>769</v>
       </c>
-      <c r="AL80" s="8" t="s">
+      <c r="AN80" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="AM80" s="6">
+      <c r="AO80" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>93</v>
       </c>
@@ -8259,64 +8490,66 @@
         <v>53</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="6">
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6">
         <v>1</v>
       </c>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6" t="s">
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>322</v>
       </c>
       <c r="Q81" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="S81" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="T81" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
-      <c r="X81" s="6" t="s">
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
-      <c r="AC81" s="6" t="s">
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD81" s="6" t="s">
+      <c r="AF81" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE81" s="7"/>
-      <c r="AF81" s="6"/>
-      <c r="AG81" s="6"/>
+      <c r="AG81" s="7"/>
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AJ81" s="6">
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="6">
         <v>4</v>
       </c>
-      <c r="AK81" s="6">
+      <c r="AM81" s="6">
         <v>770</v>
       </c>
-      <c r="AL81" s="9"/>
-      <c r="AM81" s="6">
+      <c r="AN81" s="9"/>
+      <c r="AO81" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>94</v>
       </c>
@@ -8342,62 +8575,64 @@
         <v>53</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="6">
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6">
         <v>1</v>
       </c>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6" t="s">
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="N82" s="6" t="s">
+      <c r="P82" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6" t="s">
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R82" s="6" t="s">
+      <c r="T82" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
-      <c r="X82" s="6" t="s">
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
-      <c r="AC82" s="6" t="s">
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD82" s="6" t="s">
+      <c r="AF82" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="6"/>
-      <c r="AG82" s="6"/>
-      <c r="AH82" s="6" t="s">
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="AI82" s="6"/>
-      <c r="AJ82" s="6">
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6">
         <v>4</v>
       </c>
-      <c r="AK82" s="6">
+      <c r="AM82" s="6">
         <v>771</v>
       </c>
-      <c r="AL82" s="9"/>
-      <c r="AM82" s="6">
+      <c r="AN82" s="9"/>
+      <c r="AO82" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>95</v>
       </c>
@@ -8423,66 +8658,68 @@
         <v>53</v>
       </c>
       <c r="I83" s="6"/>
-      <c r="J83" s="6">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6">
         <v>8</v>
       </c>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6" t="s">
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="N83" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="O83" s="6"/>
       <c r="P83" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="Q83" s="6" t="s">
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="S83" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R83" s="6" t="s">
+      <c r="T83" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S83" s="6">
+      <c r="U83" s="6">
         <v>0.5</v>
       </c>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="6" t="s">
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
-      <c r="AC83" s="6" t="s">
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD83" s="6" t="s">
+      <c r="AF83" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE83" s="7">
+      <c r="AG83" s="7">
         <v>0.03</v>
       </c>
-      <c r="AF83" s="6"/>
-      <c r="AG83" s="6"/>
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AJ83" s="6">
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6">
         <v>2</v>
       </c>
-      <c r="AK83" s="6">
+      <c r="AM83" s="6">
         <v>820</v>
       </c>
-      <c r="AL83" s="9"/>
-      <c r="AM83" s="6">
+      <c r="AN83" s="9"/>
+      <c r="AO83" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>96</v>
       </c>
@@ -8527,25 +8764,27 @@
       <c r="AB84" s="6"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
-      <c r="AE84" s="7"/>
+      <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
-      <c r="AG84" s="6"/>
+      <c r="AG84" s="7"/>
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
-      <c r="AJ84" s="6">
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="6">
         <v>1</v>
       </c>
-      <c r="AK84" s="6">
+      <c r="AM84" s="6">
         <v>330</v>
       </c>
-      <c r="AL84" s="8" t="s">
+      <c r="AN84" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AM84" s="6">
+      <c r="AO84" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>97</v>
       </c>
@@ -8571,72 +8810,74 @@
         <v>216</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="6">
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6">
         <v>0.5</v>
       </c>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6" t="s">
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N85" s="6" t="s">
+      <c r="P85" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O85" s="6" t="s">
+      <c r="Q85" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6" t="s">
+      <c r="R85" s="6"/>
+      <c r="S85" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R85" s="6" t="s">
+      <c r="T85" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
-      <c r="W85" s="6" t="s">
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
-      <c r="AC85" s="6" t="s">
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD85" s="6" t="s">
+      <c r="AF85" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE85" s="7">
+      <c r="AG85" s="7">
         <v>0.02</v>
       </c>
-      <c r="AF85" s="6">
+      <c r="AH85" s="6">
         <v>0</v>
       </c>
-      <c r="AG85" s="6">
+      <c r="AI85" s="6">
         <v>1</v>
       </c>
-      <c r="AH85" s="6" t="s">
+      <c r="AJ85" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI85" s="6" t="s">
+      <c r="AK85" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ85" s="6">
+      <c r="AL85" s="6">
         <v>2</v>
       </c>
-      <c r="AK85" s="6">
+      <c r="AM85" s="6">
         <v>75</v>
       </c>
-      <c r="AL85" s="9"/>
-      <c r="AM85" s="6">
+      <c r="AN85" s="9"/>
+      <c r="AO85" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>98</v>
       </c>
@@ -8662,72 +8903,74 @@
         <v>216</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="6">
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6">
         <v>0.15</v>
       </c>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6" t="s">
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="P86" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="O86" s="6" t="s">
+      <c r="Q86" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6" t="s">
+      <c r="R86" s="6"/>
+      <c r="S86" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R86" s="6" t="s">
+      <c r="T86" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="6" t="s">
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
-      <c r="AC86" s="6" t="s">
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD86" s="6" t="s">
+      <c r="AF86" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE86" s="7">
+      <c r="AG86" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF86" s="6">
+      <c r="AH86" s="6">
         <v>0</v>
       </c>
-      <c r="AG86" s="6">
+      <c r="AI86" s="6">
         <v>1</v>
       </c>
-      <c r="AH86" s="6" t="s">
+      <c r="AJ86" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI86" s="6" t="s">
+      <c r="AK86" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ86" s="6">
+      <c r="AL86" s="6">
         <v>2</v>
       </c>
-      <c r="AK86" s="6">
+      <c r="AM86" s="6">
         <v>76</v>
       </c>
-      <c r="AL86" s="9"/>
-      <c r="AM86" s="6">
+      <c r="AN86" s="9"/>
+      <c r="AO86" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>99</v>
       </c>
@@ -8753,72 +8996,74 @@
         <v>216</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="6">
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6">
         <v>0.2</v>
       </c>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6" t="s">
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="P87" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="O87" s="6" t="s">
+      <c r="Q87" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6" t="s">
+      <c r="R87" s="6"/>
+      <c r="S87" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R87" s="6" t="s">
+      <c r="T87" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
-      <c r="W87" s="6" t="s">
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
-      <c r="AC87" s="6" t="s">
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD87" s="6" t="s">
+      <c r="AF87" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE87" s="7">
+      <c r="AG87" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF87" s="6">
+      <c r="AH87" s="6">
         <v>0</v>
       </c>
-      <c r="AG87" s="6">
+      <c r="AI87" s="6">
         <v>1</v>
       </c>
-      <c r="AH87" s="6" t="s">
+      <c r="AJ87" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI87" s="6" t="s">
+      <c r="AK87" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ87" s="6">
+      <c r="AL87" s="6">
         <v>2</v>
       </c>
-      <c r="AK87" s="6">
+      <c r="AM87" s="6">
         <v>77</v>
       </c>
-      <c r="AL87" s="9"/>
-      <c r="AM87" s="6">
+      <c r="AN87" s="9"/>
+      <c r="AO87" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>100</v>
       </c>
@@ -8844,72 +9089,74 @@
         <v>216</v>
       </c>
       <c r="I88" s="6"/>
-      <c r="J88" s="6">
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6">
         <v>0.4</v>
       </c>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6" t="s">
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N88" s="6" t="s">
+      <c r="P88" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="O88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6" t="s">
+      <c r="R88" s="6"/>
+      <c r="S88" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R88" s="6" t="s">
+      <c r="T88" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
-      <c r="W88" s="6" t="s">
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
-      <c r="AC88" s="6" t="s">
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD88" s="6" t="s">
+      <c r="AF88" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE88" s="7">
+      <c r="AG88" s="7">
         <v>0.02</v>
       </c>
-      <c r="AF88" s="6">
+      <c r="AH88" s="6">
         <v>0</v>
       </c>
-      <c r="AG88" s="6">
+      <c r="AI88" s="6">
         <v>1</v>
       </c>
-      <c r="AH88" s="6" t="s">
+      <c r="AJ88" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI88" s="6" t="s">
+      <c r="AK88" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ88" s="6">
+      <c r="AL88" s="6">
         <v>2</v>
       </c>
-      <c r="AK88" s="6">
+      <c r="AM88" s="6">
         <v>777</v>
       </c>
-      <c r="AL88" s="9"/>
-      <c r="AM88" s="6">
+      <c r="AN88" s="9"/>
+      <c r="AO88" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>101</v>
       </c>
@@ -8935,72 +9182,74 @@
         <v>216</v>
       </c>
       <c r="I89" s="6"/>
-      <c r="J89" s="6">
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6">
         <v>0.3</v>
       </c>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6" t="s">
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N89" s="6" t="s">
+      <c r="P89" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="O89" s="6" t="s">
+      <c r="Q89" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6" t="s">
+      <c r="R89" s="6"/>
+      <c r="S89" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R89" s="6" t="s">
+      <c r="T89" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
-      <c r="W89" s="6" t="s">
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
-      <c r="AC89" s="6" t="s">
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD89" s="6" t="s">
+      <c r="AF89" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE89" s="7">
+      <c r="AG89" s="7">
         <v>0.03</v>
       </c>
-      <c r="AF89" s="6">
+      <c r="AH89" s="6">
         <v>0</v>
       </c>
-      <c r="AG89" s="6">
+      <c r="AI89" s="6">
         <v>1</v>
       </c>
-      <c r="AH89" s="6" t="s">
+      <c r="AJ89" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI89" s="6" t="s">
+      <c r="AK89" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ89" s="6">
+      <c r="AL89" s="6">
         <v>2</v>
       </c>
-      <c r="AK89" s="6">
+      <c r="AM89" s="6">
         <v>778</v>
       </c>
-      <c r="AL89" s="9"/>
-      <c r="AM89" s="6">
+      <c r="AN89" s="9"/>
+      <c r="AO89" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>102</v>
       </c>
@@ -9025,22 +9274,22 @@
       <c r="H90" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-      <c r="R90" s="6" t="s">
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
@@ -9051,21 +9300,23 @@
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
-      <c r="AE90" s="10"/>
+      <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
-      <c r="AG90" s="6"/>
+      <c r="AG90" s="10"/>
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
-      <c r="AK90" s="6">
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6">
         <v>78</v>
       </c>
-      <c r="AL90" s="8" t="s">
+      <c r="AN90" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="AM90" s="6"/>
+      <c r="AO90" s="6"/>
     </row>
-    <row r="91" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>103</v>
       </c>
@@ -9090,24 +9341,24 @@
       <c r="H91" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
-      <c r="R91" s="6" t="s">
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
@@ -9118,21 +9369,23 @@
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
-      <c r="AE91" s="10"/>
+      <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
-      <c r="AG91" s="6"/>
+      <c r="AG91" s="10"/>
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
-      <c r="AK91" s="6">
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6">
         <v>79</v>
       </c>
-      <c r="AL91" s="9">
+      <c r="AN91" s="9">
         <v>68</v>
       </c>
-      <c r="AM91" s="6"/>
+      <c r="AO91" s="6"/>
     </row>
-    <row r="92" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>104</v>
       </c>
@@ -9157,24 +9410,24 @@
       <c r="H92" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-      <c r="R92" s="6" t="s">
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
@@ -9185,21 +9438,23 @@
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
-      <c r="AE92" s="10"/>
+      <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
-      <c r="AG92" s="6"/>
+      <c r="AG92" s="10"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
-      <c r="AK92" s="6">
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="6"/>
+      <c r="AM92" s="6">
         <v>80</v>
       </c>
-      <c r="AL92" s="9">
+      <c r="AN92" s="9">
         <v>130</v>
       </c>
-      <c r="AM92" s="6"/>
+      <c r="AO92" s="6"/>
     </row>
-    <row r="93" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>105</v>
       </c>
@@ -9224,22 +9479,22 @@
       <c r="H93" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-      <c r="R93" s="6" t="s">
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
@@ -9250,21 +9505,23 @@
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
-      <c r="AE93" s="10"/>
+      <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
-      <c r="AG93" s="6"/>
+      <c r="AG93" s="10"/>
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
-      <c r="AK93" s="6">
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="6"/>
+      <c r="AM93" s="6">
         <v>82</v>
       </c>
-      <c r="AL93" s="9">
+      <c r="AN93" s="9">
         <v>76</v>
       </c>
-      <c r="AM93" s="6"/>
+      <c r="AO93" s="6"/>
     </row>
-    <row r="94" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>106</v>
       </c>
@@ -9289,22 +9546,22 @@
       <c r="H94" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-      <c r="R94" s="6" t="s">
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
@@ -9315,21 +9572,23 @@
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
-      <c r="AE94" s="10"/>
+      <c r="AE94" s="6"/>
       <c r="AF94" s="6"/>
-      <c r="AG94" s="6"/>
+      <c r="AG94" s="10"/>
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
       <c r="AJ94" s="6"/>
-      <c r="AK94" s="6">
+      <c r="AK94" s="6"/>
+      <c r="AL94" s="6"/>
+      <c r="AM94" s="6">
         <v>83</v>
       </c>
-      <c r="AL94" s="9">
+      <c r="AN94" s="9">
         <v>77</v>
       </c>
-      <c r="AM94" s="6"/>
+      <c r="AO94" s="6"/>
     </row>
-    <row r="95" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>107</v>
       </c>
@@ -9354,22 +9613,22 @@
       <c r="H95" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-      <c r="R95" s="6" t="s">
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
@@ -9380,21 +9639,23 @@
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
       <c r="AD95" s="6"/>
-      <c r="AE95" s="10"/>
+      <c r="AE95" s="6"/>
       <c r="AF95" s="6"/>
-      <c r="AG95" s="6"/>
+      <c r="AG95" s="10"/>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
-      <c r="AK95" s="6">
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6"/>
+      <c r="AM95" s="6">
         <v>84</v>
       </c>
-      <c r="AL95" s="9">
+      <c r="AN95" s="9">
         <v>75</v>
       </c>
-      <c r="AM95" s="6"/>
+      <c r="AO95" s="6"/>
     </row>
-    <row r="96" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>108</v>
       </c>
@@ -9419,26 +9680,26 @@
       <c r="H96" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6" t="s">
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="P96" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-      <c r="R96" s="6" t="s">
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
@@ -9449,21 +9710,23 @@
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
       <c r="AD96" s="6"/>
-      <c r="AE96" s="10"/>
+      <c r="AE96" s="6"/>
       <c r="AF96" s="6"/>
-      <c r="AG96" s="6"/>
+      <c r="AG96" s="10"/>
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
-      <c r="AK96" s="6">
+      <c r="AK96" s="6"/>
+      <c r="AL96" s="6"/>
+      <c r="AM96" s="6">
         <v>85</v>
       </c>
-      <c r="AL96" s="8" t="s">
+      <c r="AN96" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="AM96" s="6"/>
+      <c r="AO96" s="6"/>
     </row>
-    <row r="97" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>109</v>
       </c>
@@ -9488,49 +9751,51 @@
       <c r="H97" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-      <c r="N97" s="6" t="s">
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
-      <c r="R97" s="6" t="s">
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
-      <c r="W97" s="6" t="s">
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
       <c r="AD97" s="6"/>
-      <c r="AE97" s="10"/>
+      <c r="AE97" s="6"/>
       <c r="AF97" s="6"/>
-      <c r="AG97" s="6"/>
+      <c r="AG97" s="10"/>
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
       <c r="AJ97" s="6"/>
-      <c r="AK97" s="6">
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="6"/>
+      <c r="AM97" s="6">
         <v>86</v>
       </c>
-      <c r="AL97" s="9"/>
-      <c r="AM97" s="6"/>
+      <c r="AN97" s="9"/>
+      <c r="AO97" s="6"/>
     </row>
-    <row r="98" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>110</v>
       </c>
@@ -9553,22 +9818,22 @@
       <c r="H98" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
-      <c r="R98" s="6" t="s">
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
@@ -9579,20 +9844,22 @@
       <c r="AB98" s="6"/>
       <c r="AC98" s="6"/>
       <c r="AD98" s="6"/>
-      <c r="AE98" s="10"/>
+      <c r="AE98" s="6"/>
       <c r="AF98" s="6"/>
-      <c r="AG98" s="6"/>
+      <c r="AG98" s="10"/>
       <c r="AH98" s="6"/>
       <c r="AI98" s="6"/>
       <c r="AJ98" s="6"/>
-      <c r="AK98" s="6">
+      <c r="AK98" s="6"/>
+      <c r="AL98" s="6"/>
+      <c r="AM98" s="6">
         <v>521</v>
       </c>
-      <c r="AL98" s="9"/>
-      <c r="AM98" s="6"/>
+      <c r="AN98" s="9"/>
+      <c r="AO98" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B5ABAA-E327-4EC7-8F35-3CD31C6597BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7FFAB-1C43-4B2E-9140-12BC557BA9C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Petrol!$A$1:$AO$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="392">
   <si>
     <t>Sorting</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
   </si>
   <si>
     <t>Result Format</t>
@@ -187,6 +193,9 @@
   </si>
   <si>
     <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
   <si>
     <t>Y</t>
@@ -379,6 +388,12 @@
     <t>Кока-Кола Зеро Вишня- 0.9л</t>
   </si>
   <si>
+    <t>Coca-Cola Zero Cherry - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>5449000251626, 5449000251619</t>
+  </si>
+  <si>
     <t>Coca-Cola Zero - 0.9L/1L</t>
   </si>
   <si>
@@ -400,7 +415,10 @@
     <t>Швеппс Биттер Лемон - 1л</t>
   </si>
   <si>
-    <t>5449000044839</t>
+    <t>Schweppes Bitter Lemon - 0.9/1L</t>
+  </si>
+  <si>
+    <t>5449000044839, 5449000280152</t>
   </si>
   <si>
     <t>STANDARD 2</t>
@@ -410,6 +428,9 @@
   </si>
   <si>
     <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
   <si>
     <t xml:space="preserve">24
@@ -478,6 +499,9 @@
     <t>Представленность Энергетиков</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>30
 31
 32
@@ -553,6 +577,9 @@
     <t>Представленность Чая</t>
   </si>
   <si>
+    <t>ice tea</t>
+  </si>
+  <si>
     <t xml:space="preserve">37
 38
 39
@@ -610,6 +637,9 @@
   </si>
   <si>
     <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
   <si>
     <t xml:space="preserve">44
@@ -745,9 +775,6 @@
     <t>Manufacturer: TCCC</t>
   </si>
   <si>
-    <t>SSD</t>
-  </si>
-  <si>
     <t>MAN in CAT</t>
   </si>
   <si>
@@ -772,9 +799,6 @@
     <t>Вода полка: Доля полки</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>STANDARD 25</t>
   </si>
   <si>
@@ -782,9 +806,6 @@
   </si>
   <si>
     <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
   </si>
   <si>
     <t>Coolers</t>
@@ -1148,16 +1169,10 @@
     <t>Охлажденная Доля Полки Чай</t>
   </si>
   <si>
-    <t>ice tea</t>
-  </si>
-  <si>
     <t>Chilled Shelf Share Juice</t>
   </si>
   <si>
     <t>Охлажденная Доля Полки Сок</t>
-  </si>
-  <si>
-    <t>Juices</t>
   </si>
   <si>
     <t>Hidden</t>
@@ -1264,31 +1279,19 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Displays, SS_Displays</t>
-  </si>
-  <si>
-    <t>5449000251626, 5449000251619</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Cherry - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol</t>
-  </si>
-  <si>
-    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
-  </si>
-  <si>
-    <t>Category KPI Type</t>
-  </si>
-  <si>
-    <t>Category KPI Value</t>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Café Activation; Cash Zone; SS_Café Activation; SS_Cash Zone - Petrol; Promo SSD Display IC</t>
+  </si>
+  <si>
+    <t>Menu Board; Café Activation; Cash Zone; SS_Menu Board - Petrol; SS_Café Activation; SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Displays; SS_Displays</t>
   </si>
 </sst>
 </file>
@@ -1330,18 +1333,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1395,43 +1392,43 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1440,74 +1437,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1816,205 +1745,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM98"/>
+  <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="R1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Z84" sqref="Z1:AA84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="4"/>
-    <col min="2" max="2" width="11.7109375" style="4"/>
-    <col min="3" max="3" width="10.7109375" style="4"/>
-    <col min="4" max="4" width="11.140625" style="4"/>
-    <col min="5" max="5" width="16.140625" style="4"/>
-    <col min="6" max="6" width="34.85546875" style="4"/>
-    <col min="7" max="7" width="31.7109375" style="4"/>
-    <col min="8" max="8" width="44" style="4"/>
-    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="4"/>
-    <col min="12" max="12" width="8.85546875" style="4"/>
-    <col min="13" max="14" width="13.28515625" style="4"/>
-    <col min="15" max="16" width="39.5703125" style="4"/>
-    <col min="17" max="17" width="19.5703125" style="4"/>
-    <col min="18" max="18" width="19.7109375" style="4"/>
-    <col min="19" max="19" width="18.7109375" style="4"/>
-    <col min="20" max="20" width="13.7109375" style="4"/>
-    <col min="21" max="21" width="7" style="4"/>
-    <col min="22" max="22" width="14.5703125" style="4"/>
-    <col min="23" max="23" width="18.140625" style="4"/>
-    <col min="24" max="24" width="22.7109375" style="4"/>
-    <col min="25" max="25" width="22.5703125" style="4"/>
-    <col min="26" max="26" width="35.42578125" style="4"/>
-    <col min="27" max="27" width="20.28515625" style="4"/>
-    <col min="28" max="28" width="26.140625" style="4"/>
-    <col min="29" max="29" width="26.7109375" style="4"/>
-    <col min="30" max="30" width="16" style="4"/>
-    <col min="31" max="31" width="13.42578125" style="4"/>
-    <col min="32" max="32" width="16.28515625" style="4"/>
-    <col min="33" max="33" width="14.7109375" style="4"/>
-    <col min="34" max="34" width="12.85546875" style="4"/>
-    <col min="35" max="35" width="13.140625" style="4"/>
-    <col min="36" max="36" width="64.140625" style="4"/>
-    <col min="37" max="37" width="31.28515625" style="4"/>
-    <col min="38" max="38" width="7.5703125" style="4"/>
-    <col min="39" max="39" width="8.85546875" style="4"/>
-    <col min="40" max="40" width="10.85546875" style="4"/>
-    <col min="41" max="41" width="9" style="4"/>
-    <col min="42" max="1027" width="9.28515625" style="4"/>
-    <col min="1028" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="11.109375" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="11.88671875" style="1"/>
+    <col min="5" max="5" width="17.21875" style="1"/>
+    <col min="6" max="6" width="37.44140625" style="1"/>
+    <col min="7" max="7" width="34" style="1"/>
+    <col min="8" max="8" width="47.33203125" style="1"/>
+    <col min="9" max="9" width="26.88671875" style="1"/>
+    <col min="10" max="10" width="27.44140625" style="1"/>
+    <col min="11" max="11" width="17.44140625" style="1"/>
+    <col min="12" max="12" width="9.44140625" style="1"/>
+    <col min="13" max="14" width="14.33203125" style="1"/>
+    <col min="15" max="16" width="42.5546875" style="1"/>
+    <col min="17" max="17" width="21" style="1"/>
+    <col min="18" max="18" width="21.109375" style="1"/>
+    <col min="19" max="19" width="20" style="1"/>
+    <col min="20" max="20" width="14.6640625" style="1"/>
+    <col min="21" max="21" width="7.44140625" style="1"/>
+    <col min="22" max="22" width="15.6640625" style="1"/>
+    <col min="23" max="23" width="19.44140625" style="1"/>
+    <col min="24" max="24" width="24.33203125" style="1"/>
+    <col min="25" max="25" width="24.21875" style="1"/>
+    <col min="26" max="26" width="102.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.77734375" style="1"/>
+    <col min="28" max="28" width="28.109375" style="1"/>
+    <col min="29" max="29" width="28.6640625" style="1"/>
+    <col min="30" max="30" width="17.109375" style="1"/>
+    <col min="31" max="31" width="14.44140625" style="1"/>
+    <col min="32" max="32" width="17.44140625" style="1"/>
+    <col min="33" max="33" width="15.77734375" style="1"/>
+    <col min="34" max="34" width="13.77734375" style="1"/>
+    <col min="35" max="35" width="14" style="1"/>
+    <col min="36" max="36" width="69" style="1"/>
+    <col min="37" max="37" width="33.6640625" style="1"/>
+    <col min="38" max="38" width="8.109375" style="1"/>
+    <col min="39" max="39" width="9.44140625" style="1"/>
+    <col min="40" max="40" width="11.6640625" style="1"/>
+    <col min="41" max="41" width="9.5546875" style="1"/>
+    <col min="42" max="1025" width="9.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -2052,40 +1981,40 @@
         <v>300</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>218</v>
+        <v>50</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2108,10 +2037,10 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="6"/>
@@ -2125,36 +2054,36 @@
         <v>1</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -2165,38 +2094,38 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG4" s="7">
         <v>1.4194E-2</v>
@@ -2211,35 +2140,35 @@
       <c r="AM4" s="6">
         <v>2</v>
       </c>
-      <c r="AN4" s="9"/>
+      <c r="AN4" s="10"/>
       <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -2250,38 +2179,38 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG5" s="7">
         <v>1.4194E-2</v>
@@ -2296,35 +2225,35 @@
       <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AN5" s="9"/>
+      <c r="AN5" s="10"/>
       <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -2335,36 +2264,36 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG6" s="7">
         <v>1.4194E-2</v>
@@ -2379,35 +2308,35 @@
       <c r="AM6" s="6">
         <v>602</v>
       </c>
-      <c r="AN6" s="9"/>
+      <c r="AN6" s="10"/>
       <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2418,38 +2347,38 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG7" s="7">
         <v>1.4194E-2</v>
@@ -2464,35 +2393,35 @@
       <c r="AM7" s="6">
         <v>6</v>
       </c>
-      <c r="AN7" s="9"/>
+      <c r="AN7" s="10"/>
       <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2503,38 +2432,38 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG8" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2549,35 +2478,35 @@
       <c r="AM8" s="6">
         <v>7</v>
       </c>
-      <c r="AN8" s="9"/>
+      <c r="AN8" s="10"/>
       <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2588,38 +2517,38 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG9" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2634,35 +2563,35 @@
       <c r="AM9" s="6">
         <v>4</v>
       </c>
-      <c r="AN9" s="9"/>
+      <c r="AN9" s="10"/>
       <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2673,38 +2602,38 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG10" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2719,35 +2648,35 @@
       <c r="AM10" s="6">
         <v>5</v>
       </c>
-      <c r="AN10" s="9"/>
+      <c r="AN10" s="10"/>
       <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2758,7 +2687,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P11" s="6">
         <v>42099697</v>
@@ -2766,28 +2695,28 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2802,35 +2731,35 @@
       <c r="AM11" s="6">
         <v>603</v>
       </c>
-      <c r="AN11" s="9"/>
+      <c r="AN11" s="10"/>
       <c r="AO11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2841,38 +2770,38 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG12" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2887,35 +2816,35 @@
       <c r="AM12" s="6">
         <v>14</v>
       </c>
-      <c r="AN12" s="9"/>
+      <c r="AN12" s="10"/>
       <c r="AO12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2926,38 +2855,38 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG13" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2972,35 +2901,35 @@
       <c r="AM13" s="6">
         <v>11</v>
       </c>
-      <c r="AN13" s="9"/>
+      <c r="AN13" s="10"/>
       <c r="AO13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3011,36 +2940,36 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG14" s="7">
         <v>8.8999999999999999E-3</v>
@@ -3055,35 +2984,35 @@
       <c r="AM14" s="6">
         <v>606</v>
       </c>
-      <c r="AN14" s="9"/>
+      <c r="AN14" s="10"/>
       <c r="AO14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -3094,36 +3023,36 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG15" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3138,35 +3067,35 @@
       <c r="AM15" s="6">
         <v>607</v>
       </c>
-      <c r="AN15" s="9"/>
+      <c r="AN15" s="10"/>
       <c r="AO15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -3177,36 +3106,36 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG16" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3221,35 +3150,35 @@
       <c r="AM16" s="6">
         <v>605</v>
       </c>
-      <c r="AN16" s="9"/>
+      <c r="AN16" s="10"/>
       <c r="AO16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -3260,38 +3189,38 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG17" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3306,35 +3235,35 @@
       <c r="AM17" s="6">
         <v>9</v>
       </c>
-      <c r="AN17" s="9"/>
+      <c r="AN17" s="10"/>
       <c r="AO17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -3345,38 +3274,38 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG18" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3391,35 +3320,35 @@
       <c r="AM18" s="6">
         <v>17</v>
       </c>
-      <c r="AN18" s="9"/>
+      <c r="AN18" s="10"/>
       <c r="AO18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -3429,39 +3358,39 @@
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>383</v>
+      <c r="O19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG19" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3476,35 +3405,35 @@
       <c r="AM19" s="6">
         <v>20</v>
       </c>
-      <c r="AN19" s="9"/>
+      <c r="AN19" s="10"/>
       <c r="AO19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3515,38 +3444,38 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG20" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3561,35 +3490,35 @@
       <c r="AM20" s="6">
         <v>19</v>
       </c>
-      <c r="AN20" s="9"/>
+      <c r="AN20" s="10"/>
       <c r="AO20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -3600,7 +3529,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P21" s="6">
         <v>5449000253101</v>
@@ -3608,28 +3537,28 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG21" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3644,35 +3573,35 @@
       <c r="AM21" s="6">
         <v>601</v>
       </c>
-      <c r="AN21" s="9"/>
+      <c r="AN21" s="10"/>
       <c r="AO21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3682,39 +3611,39 @@
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>113</v>
+      <c r="O22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG22" s="7">
         <v>5.5890000000000002E-3</v>
@@ -3729,41 +3658,41 @@
       <c r="AM22" s="6">
         <v>18</v>
       </c>
-      <c r="AN22" s="9"/>
+      <c r="AN22" s="10"/>
       <c r="AO22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>227</v>
+        <v>50</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3786,10 +3715,10 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG23" s="7"/>
       <c r="AH23" s="6"/>
@@ -3803,36 +3732,36 @@
         <v>23</v>
       </c>
       <c r="AN23" s="8" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AO23" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -3843,38 +3772,38 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG24" s="7">
         <v>1.2919E-2</v>
@@ -3889,35 +3818,35 @@
       <c r="AM24" s="6">
         <v>24</v>
       </c>
-      <c r="AN24" s="9"/>
+      <c r="AN24" s="10"/>
       <c r="AO24" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -3928,38 +3857,38 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG25" s="7">
         <v>8.4159999999999999E-3</v>
@@ -3974,35 +3903,35 @@
       <c r="AM25" s="6">
         <v>25</v>
       </c>
-      <c r="AN25" s="9"/>
+      <c r="AN25" s="10"/>
       <c r="AO25" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -4013,38 +3942,38 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG26" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4059,35 +3988,35 @@
       <c r="AM26" s="6">
         <v>26</v>
       </c>
-      <c r="AN26" s="9"/>
+      <c r="AN26" s="10"/>
       <c r="AO26" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -4098,38 +4027,38 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG27" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4144,35 +4073,35 @@
       <c r="AM27" s="6">
         <v>27</v>
       </c>
-      <c r="AN27" s="9"/>
+      <c r="AN27" s="10"/>
       <c r="AO27" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -4183,38 +4112,38 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG28" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4229,35 +4158,35 @@
       <c r="AM28" s="6">
         <v>28</v>
       </c>
-      <c r="AN28" s="9"/>
+      <c r="AN28" s="10"/>
       <c r="AO28" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -4268,7 +4197,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P29" s="6">
         <v>5449000152190</v>
@@ -4276,28 +4205,28 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG29" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4312,41 +4241,41 @@
       <c r="AM29" s="6">
         <v>653</v>
       </c>
-      <c r="AN29" s="9"/>
+      <c r="AN29" s="10"/>
       <c r="AO29" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>231</v>
+        <v>50</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -4369,10 +4298,10 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG30" s="7"/>
       <c r="AH30" s="6"/>
@@ -4386,36 +4315,36 @@
         <v>29</v>
       </c>
       <c r="AN30" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AO30" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4426,38 +4355,38 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG31" s="7">
         <v>1.2919E-2</v>
@@ -4472,35 +4401,35 @@
       <c r="AM31" s="6">
         <v>30</v>
       </c>
-      <c r="AN31" s="9"/>
+      <c r="AN31" s="10"/>
       <c r="AO31" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -4511,38 +4440,38 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG32" s="7">
         <v>1.2919E-2</v>
@@ -4557,35 +4486,35 @@
       <c r="AM32" s="6">
         <v>31</v>
       </c>
-      <c r="AN32" s="9"/>
+      <c r="AN32" s="10"/>
       <c r="AO32" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -4596,38 +4525,38 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG33" s="7">
         <v>1.2919E-2</v>
@@ -4642,35 +4571,35 @@
       <c r="AM33" s="6">
         <v>33</v>
       </c>
-      <c r="AN33" s="9"/>
+      <c r="AN33" s="10"/>
       <c r="AO33" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -4681,7 +4610,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P34" s="6">
         <v>5060517888794</v>
@@ -4689,30 +4618,30 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG34" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4727,35 +4656,35 @@
       <c r="AM34" s="6">
         <v>35</v>
       </c>
-      <c r="AN34" s="9"/>
+      <c r="AN34" s="10"/>
       <c r="AO34" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -4766,38 +4695,38 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG35" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4812,35 +4741,35 @@
       <c r="AM35" s="6">
         <v>34</v>
       </c>
-      <c r="AN35" s="9"/>
+      <c r="AN35" s="10"/>
       <c r="AO35" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -4851,38 +4780,38 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG36" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4897,35 +4826,35 @@
       <c r="AM36" s="6">
         <v>67</v>
       </c>
-      <c r="AN36" s="9"/>
+      <c r="AN36" s="10"/>
       <c r="AO36" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -4936,38 +4865,38 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
       <c r="AE37" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG37" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4982,41 +4911,41 @@
       <c r="AM37" s="6">
         <v>32</v>
       </c>
-      <c r="AN37" s="9"/>
+      <c r="AN37" s="10"/>
       <c r="AO37" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>45</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>347</v>
+        <v>50</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -5039,10 +4968,10 @@
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG38" s="7"/>
       <c r="AH38" s="6"/>
@@ -5056,36 +4985,36 @@
         <v>36</v>
       </c>
       <c r="AN38" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AO38" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -5096,38 +5025,38 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG39" s="7">
         <v>1.2919E-2</v>
@@ -5142,35 +5071,35 @@
       <c r="AM39" s="6">
         <v>39</v>
       </c>
-      <c r="AN39" s="9"/>
+      <c r="AN39" s="10"/>
       <c r="AO39" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -5181,38 +5110,38 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG40" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5227,35 +5156,35 @@
       <c r="AM40" s="6">
         <v>37</v>
       </c>
-      <c r="AN40" s="9"/>
+      <c r="AN40" s="10"/>
       <c r="AO40" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -5266,38 +5195,38 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG41" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5312,35 +5241,35 @@
       <c r="AM41" s="6">
         <v>38</v>
       </c>
-      <c r="AN41" s="9"/>
+      <c r="AN41" s="10"/>
       <c r="AO41" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>49</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -5351,38 +5280,38 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG42" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5397,35 +5326,35 @@
       <c r="AM42" s="6">
         <v>40</v>
       </c>
-      <c r="AN42" s="9"/>
+      <c r="AN42" s="10"/>
       <c r="AO42" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -5436,38 +5365,38 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF43" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG43" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5482,41 +5411,41 @@
       <c r="AM43" s="6">
         <v>41</v>
       </c>
-      <c r="AN43" s="9"/>
+      <c r="AN43" s="10"/>
       <c r="AO43" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>52</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>350</v>
+        <v>50</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -5539,10 +5468,10 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF44" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG44" s="7"/>
       <c r="AH44" s="6"/>
@@ -5556,36 +5485,36 @@
         <v>43</v>
       </c>
       <c r="AN44" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AO44" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>53</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -5596,38 +5525,38 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF45" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG45" s="7">
         <v>1.2919E-2</v>
@@ -5642,35 +5571,35 @@
       <c r="AM45" s="6">
         <v>44</v>
       </c>
-      <c r="AN45" s="9"/>
+      <c r="AN45" s="10"/>
       <c r="AO45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>54</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -5681,38 +5610,38 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF46" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG46" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5727,35 +5656,35 @@
       <c r="AM46" s="6">
         <v>45</v>
       </c>
-      <c r="AN46" s="9"/>
+      <c r="AN46" s="10"/>
       <c r="AO46" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>55</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -5766,38 +5695,38 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG47" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5812,35 +5741,35 @@
       <c r="AM47" s="6">
         <v>46</v>
       </c>
-      <c r="AN47" s="9"/>
+      <c r="AN47" s="10"/>
       <c r="AO47" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>56</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -5851,38 +5780,38 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG48" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5897,35 +5826,35 @@
       <c r="AM48" s="6">
         <v>47</v>
       </c>
-      <c r="AN48" s="9"/>
+      <c r="AN48" s="10"/>
       <c r="AO48" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>57</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -5936,38 +5865,38 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG49" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5982,35 +5911,35 @@
       <c r="AM49" s="6">
         <v>48</v>
       </c>
-      <c r="AN49" s="9"/>
+      <c r="AN49" s="10"/>
       <c r="AO49" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>58</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -6021,36 +5950,36 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG50" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6065,35 +5994,35 @@
       <c r="AM50" s="6">
         <v>104</v>
       </c>
-      <c r="AN50" s="9"/>
+      <c r="AN50" s="10"/>
       <c r="AO50" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>59</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -6104,36 +6033,36 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
       <c r="AE51" s="6"/>
       <c r="AF51" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG51" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6148,35 +6077,35 @@
       <c r="AM51" s="6">
         <v>105</v>
       </c>
-      <c r="AN51" s="9"/>
+      <c r="AN51" s="10"/>
       <c r="AO51" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>60</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -6187,38 +6116,38 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
       <c r="AE52" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG52" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6233,35 +6162,35 @@
       <c r="AM52" s="6">
         <v>52</v>
       </c>
-      <c r="AN52" s="9"/>
+      <c r="AN52" s="10"/>
       <c r="AO52" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -6272,38 +6201,38 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
       <c r="AE53" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF53" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG53" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6318,35 +6247,35 @@
       <c r="AM53" s="6">
         <v>50</v>
       </c>
-      <c r="AN53" s="9"/>
+      <c r="AN53" s="10"/>
       <c r="AO53" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>62</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -6357,7 +6286,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P54" s="6">
         <v>4650075423257</v>
@@ -6365,30 +6294,30 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
       <c r="AE54" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF54" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG54" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6403,35 +6332,35 @@
       <c r="AM54" s="6">
         <v>49</v>
       </c>
-      <c r="AN54" s="9"/>
+      <c r="AN54" s="10"/>
       <c r="AO54" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>63</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -6442,7 +6371,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="P55" s="6">
         <v>4650075423233</v>
@@ -6450,30 +6379,30 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
       <c r="AE55" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG55" s="7">
         <v>3.1480000000000002E-3</v>
@@ -6488,33 +6417,33 @@
       <c r="AM55" s="6">
         <v>53</v>
       </c>
-      <c r="AN55" s="9"/>
+      <c r="AN55" s="10"/>
       <c r="AO55" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>65</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -6552,40 +6481,40 @@
         <v>520</v>
       </c>
       <c r="AN56" s="8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AO56" s="6"/>
     </row>
-    <row r="57" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>218</v>
+        <v>226</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6">
@@ -6594,27 +6523,27 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="R57" s="6"/>
       <c r="S57" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
@@ -6622,10 +6551,10 @@
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
       <c r="AE57" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF57" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG57" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6637,10 +6566,10 @@
         <v>1</v>
       </c>
       <c r="AJ57" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AK57" s="6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AL57" s="6">
         <v>2</v>
@@ -6648,41 +6577,41 @@
       <c r="AM57" s="6">
         <v>54</v>
       </c>
-      <c r="AN57" s="9"/>
+      <c r="AN57" s="10"/>
       <c r="AO57" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>67</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G58" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>227</v>
+      <c r="I58" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6">
@@ -6691,27 +6620,27 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="R58" s="6"/>
       <c r="S58" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
@@ -6719,10 +6648,10 @@
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
       <c r="AE58" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF58" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG58" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6734,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="AJ58" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AK58" s="6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AL58" s="6">
         <v>2</v>
@@ -6745,41 +6674,41 @@
       <c r="AM58" s="6">
         <v>55</v>
       </c>
-      <c r="AN58" s="9"/>
+      <c r="AN58" s="10"/>
       <c r="AO58" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>68</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6">
@@ -6788,27 +6717,27 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
@@ -6816,10 +6745,10 @@
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
       <c r="AE59" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF59" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG59" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6831,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="AJ59" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AK59" s="6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AL59" s="6">
         <v>2</v>
@@ -6842,33 +6771,33 @@
       <c r="AM59" s="6">
         <v>56</v>
       </c>
-      <c r="AN59" s="9"/>
+      <c r="AN59" s="10"/>
       <c r="AO59" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>71</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -6906,32 +6835,32 @@
         <v>310</v>
       </c>
       <c r="AN60" s="8" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AO60" s="6"/>
     </row>
-    <row r="61" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>72</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -6968,37 +6897,37 @@
       <c r="AM61" s="6">
         <v>311</v>
       </c>
-      <c r="AN61" s="9">
+      <c r="AN61" s="10">
         <v>62</v>
       </c>
       <c r="AO61" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>73</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -7011,7 +6940,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
@@ -7025,10 +6954,10 @@
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
       <c r="AE62" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF62" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG62" s="7">
         <v>0.1275</v>
@@ -7036,7 +6965,7 @@
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AK62" s="6"/>
       <c r="AL62" s="6">
@@ -7046,36 +6975,36 @@
         <v>62</v>
       </c>
       <c r="AN62" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AO62" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>74</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -7086,23 +7015,23 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
@@ -7110,16 +7039,16 @@
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
       <c r="AE63" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF63" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG63" s="7"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AK63" s="6"/>
       <c r="AL63" s="6">
@@ -7128,35 +7057,35 @@
       <c r="AM63" s="6">
         <v>63</v>
       </c>
-      <c r="AN63" s="9"/>
+      <c r="AN63" s="10"/>
       <c r="AO63" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>75</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -7167,23 +7096,23 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
@@ -7191,10 +7120,10 @@
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF64" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG64" s="7"/>
       <c r="AH64" s="6"/>
@@ -7207,33 +7136,33 @@
       <c r="AM64" s="6">
         <v>64</v>
       </c>
-      <c r="AN64" s="9"/>
+      <c r="AN64" s="10"/>
       <c r="AO64" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>76</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -7271,36 +7200,36 @@
         <v>312</v>
       </c>
       <c r="AN65" s="8" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AO65" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>77</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -7312,13 +7241,13 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
@@ -7326,17 +7255,17 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
       <c r="AE66" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF66" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG66" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7344,10 +7273,10 @@
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AK66" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AL66" s="6">
         <v>2</v>
@@ -7355,35 +7284,35 @@
       <c r="AM66" s="6">
         <v>65</v>
       </c>
-      <c r="AN66" s="9"/>
+      <c r="AN66" s="10"/>
       <c r="AO66" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>78</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -7394,23 +7323,23 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
@@ -7418,10 +7347,10 @@
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
       <c r="AE67" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF67" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG67" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7429,7 +7358,7 @@
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AK67" s="6"/>
       <c r="AL67" s="6">
@@ -7438,35 +7367,35 @@
       <c r="AM67" s="6">
         <v>66</v>
       </c>
-      <c r="AN67" s="9"/>
+      <c r="AN67" s="10"/>
       <c r="AO67" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>79</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -7479,23 +7408,23 @@
         <v>15</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
@@ -7503,10 +7432,10 @@
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
       <c r="AE68" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF68" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG68" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7514,7 +7443,7 @@
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AK68" s="6"/>
       <c r="AL68" s="6">
@@ -7523,33 +7452,33 @@
       <c r="AM68" s="6">
         <v>167</v>
       </c>
-      <c r="AN68" s="9"/>
+      <c r="AN68" s="10"/>
       <c r="AO68" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>80</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -7587,34 +7516,34 @@
         <v>400</v>
       </c>
       <c r="AN69" s="8" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AO69" s="6"/>
     </row>
-    <row r="70" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>81</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -7629,7 +7558,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
@@ -7644,7 +7573,7 @@
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
       <c r="AF70" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG70" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7659,37 +7588,37 @@
       <c r="AM70" s="6">
         <v>130</v>
       </c>
-      <c r="AN70" s="9">
+      <c r="AN70" s="10">
         <v>57</v>
       </c>
       <c r="AO70" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>82</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -7700,20 +7629,20 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="6" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
@@ -7721,7 +7650,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
@@ -7729,7 +7658,7 @@
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
       <c r="AF71" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG71" s="7"/>
       <c r="AH71" s="6"/>
@@ -7742,35 +7671,35 @@
       <c r="AM71" s="6">
         <v>57</v>
       </c>
-      <c r="AN71" s="9"/>
+      <c r="AN71" s="10"/>
       <c r="AO71" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>84</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -7785,7 +7714,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
@@ -7794,7 +7723,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
@@ -7802,12 +7731,12 @@
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
       <c r="AF72" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG72" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AH72" s="5"/>
+      <c r="AH72" s="12"/>
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
       <c r="AK72" s="6"/>
@@ -7817,37 +7746,37 @@
       <c r="AM72" s="6">
         <v>68</v>
       </c>
-      <c r="AN72" s="9">
+      <c r="AN72" s="10">
         <v>69</v>
       </c>
       <c r="AO72" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>85</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -7862,7 +7791,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
@@ -7871,17 +7800,17 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
       <c r="AE73" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF73" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG73" s="7"/>
       <c r="AH73" s="6"/>
@@ -7895,36 +7824,36 @@
         <v>69</v>
       </c>
       <c r="AN73" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AO73" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>86</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -7935,20 +7864,20 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="R74" s="6"/>
       <c r="S74" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
@@ -7956,17 +7885,17 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
       <c r="AE74" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF74" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG74" s="7"/>
       <c r="AH74" s="6"/>
@@ -7979,35 +7908,35 @@
       <c r="AM74" s="6">
         <v>70</v>
       </c>
-      <c r="AN74" s="9"/>
+      <c r="AN74" s="10"/>
       <c r="AO74" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>87</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -8018,18 +7947,18 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
@@ -8037,23 +7966,23 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
       <c r="AE75" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG75" s="7"/>
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AK75" s="6"/>
       <c r="AL75" s="6">
@@ -8062,35 +7991,35 @@
       <c r="AM75" s="6">
         <v>71</v>
       </c>
-      <c r="AN75" s="9"/>
+      <c r="AN75" s="10"/>
       <c r="AO75" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>88</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -8105,7 +8034,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
@@ -8114,7 +8043,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
@@ -8122,12 +8051,12 @@
       <c r="AD76" s="6"/>
       <c r="AE76" s="6"/>
       <c r="AF76" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG76" s="7">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AH76" s="5"/>
+      <c r="AH76" s="12"/>
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
       <c r="AK76" s="6"/>
@@ -8138,36 +8067,36 @@
         <v>680</v>
       </c>
       <c r="AN76" s="8" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AO76" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>89</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -8182,7 +8111,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
@@ -8191,17 +8120,17 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
       <c r="AE77" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF77" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG77" s="7"/>
       <c r="AH77" s="6"/>
@@ -8215,36 +8144,36 @@
         <v>72</v>
       </c>
       <c r="AN77" s="8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AO77" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>90</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -8255,22 +8184,22 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="S78" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
@@ -8278,17 +8207,17 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
       <c r="AE78" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF78" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG78" s="7"/>
       <c r="AH78" s="6"/>
@@ -8301,35 +8230,35 @@
       <c r="AM78" s="6">
         <v>73</v>
       </c>
-      <c r="AN78" s="9"/>
+      <c r="AN78" s="10"/>
       <c r="AO78" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>91</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -8340,18 +8269,18 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
@@ -8359,17 +8288,17 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
       <c r="AE79" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF79" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG79" s="7"/>
       <c r="AH79" s="6"/>
@@ -8382,35 +8311,35 @@
       <c r="AM79" s="6">
         <v>74</v>
       </c>
-      <c r="AN79" s="9"/>
+      <c r="AN79" s="10"/>
       <c r="AO79" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>92</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -8425,7 +8354,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
@@ -8434,17 +8363,17 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
       <c r="AE80" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF80" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG80" s="7"/>
       <c r="AH80" s="6"/>
@@ -8458,36 +8387,36 @@
         <v>769</v>
       </c>
       <c r="AN80" s="8" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AO80" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>93</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -8498,22 +8427,22 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
@@ -8521,17 +8450,17 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
       <c r="AE81" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF81" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG81" s="7"/>
       <c r="AH81" s="6"/>
@@ -8544,35 +8473,35 @@
       <c r="AM81" s="6">
         <v>770</v>
       </c>
-      <c r="AN81" s="9"/>
+      <c r="AN81" s="10"/>
       <c r="AO81" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>94</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -8583,18 +8512,18 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
@@ -8602,23 +8531,23 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
       <c r="AE82" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF82" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG82" s="7"/>
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AK82" s="6"/>
       <c r="AL82" s="6">
@@ -8627,35 +8556,35 @@
       <c r="AM82" s="6">
         <v>771</v>
       </c>
-      <c r="AN82" s="9"/>
+      <c r="AN82" s="10"/>
       <c r="AO82" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>95</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -8666,20 +8595,20 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="U83" s="6">
         <v>0.5</v>
@@ -8689,17 +8618,17 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
       <c r="AE83" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF83" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG83" s="7">
         <v>0.03</v>
@@ -8714,33 +8643,33 @@
       <c r="AM83" s="6">
         <v>820</v>
       </c>
-      <c r="AN83" s="9"/>
+      <c r="AN83" s="10"/>
       <c r="AO83" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>96</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -8778,36 +8707,36 @@
         <v>330</v>
       </c>
       <c r="AN84" s="8" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AO84" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>97</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -8818,27 +8747,27 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="R85" s="6"/>
       <c r="S85" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
@@ -8846,10 +8775,10 @@
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
       <c r="AE85" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF85" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG85" s="7">
         <v>0.02</v>
@@ -8861,10 +8790,10 @@
         <v>1</v>
       </c>
       <c r="AJ85" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK85" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AL85" s="6">
         <v>2</v>
@@ -8872,35 +8801,35 @@
       <c r="AM85" s="6">
         <v>75</v>
       </c>
-      <c r="AN85" s="9"/>
+      <c r="AN85" s="10"/>
       <c r="AO85" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>98</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -8911,27 +8840,27 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
@@ -8939,10 +8868,10 @@
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
       <c r="AE86" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF86" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG86" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8954,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="AJ86" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK86" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AL86" s="6">
         <v>2</v>
@@ -8965,35 +8894,35 @@
       <c r="AM86" s="6">
         <v>76</v>
       </c>
-      <c r="AN86" s="9"/>
+      <c r="AN86" s="10"/>
       <c r="AO86" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>99</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -9004,27 +8933,27 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
@@ -9032,10 +8961,10 @@
       <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
       <c r="AE87" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG87" s="7">
         <v>2.5000000000000001E-2</v>
@@ -9047,10 +8976,10 @@
         <v>1</v>
       </c>
       <c r="AJ87" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK87" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AL87" s="6">
         <v>2</v>
@@ -9058,35 +8987,35 @@
       <c r="AM87" s="6">
         <v>77</v>
       </c>
-      <c r="AN87" s="9"/>
+      <c r="AN87" s="10"/>
       <c r="AO87" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>100</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -9097,27 +9026,27 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="R88" s="6"/>
       <c r="S88" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
@@ -9125,10 +9054,10 @@
       <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
       <c r="AE88" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF88" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG88" s="7">
         <v>0.02</v>
@@ -9140,10 +9069,10 @@
         <v>1</v>
       </c>
       <c r="AJ88" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK88" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AL88" s="6">
         <v>2</v>
@@ -9151,35 +9080,35 @@
       <c r="AM88" s="6">
         <v>777</v>
       </c>
-      <c r="AN88" s="9"/>
+      <c r="AN88" s="10"/>
       <c r="AO88" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>101</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -9190,27 +9119,27 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="R89" s="6"/>
       <c r="S89" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
@@ -9218,10 +9147,10 @@
       <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
       <c r="AE89" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF89" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG89" s="7">
         <v>0.03</v>
@@ -9233,10 +9162,10 @@
         <v>1</v>
       </c>
       <c r="AJ89" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AK89" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AL89" s="6">
         <v>2</v>
@@ -9244,40 +9173,40 @@
       <c r="AM89" s="6">
         <v>778</v>
       </c>
-      <c r="AN89" s="9"/>
+      <c r="AN89" s="10"/>
       <c r="AO89" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>102</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -9288,7 +9217,7 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
@@ -9302,7 +9231,7 @@
       <c r="AD90" s="6"/>
       <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
-      <c r="AG90" s="10"/>
+      <c r="AG90" s="13"/>
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
@@ -9312,52 +9241,52 @@
         <v>78</v>
       </c>
       <c r="AN90" s="8" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AO90" s="6"/>
     </row>
-    <row r="91" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>103</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
-      <c r="P91" s="11" t="s">
-        <v>362</v>
+      <c r="P91" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -9371,7 +9300,7 @@
       <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
-      <c r="AG91" s="10"/>
+      <c r="AG91" s="13"/>
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
@@ -9380,53 +9309,53 @@
       <c r="AM91" s="6">
         <v>79</v>
       </c>
-      <c r="AN91" s="9">
+      <c r="AN91" s="10">
         <v>68</v>
       </c>
       <c r="AO91" s="6"/>
     </row>
-    <row r="92" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>104</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
-      <c r="P92" s="11" t="s">
-        <v>363</v>
+      <c r="P92" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
@@ -9440,7 +9369,7 @@
       <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
-      <c r="AG92" s="10"/>
+      <c r="AG92" s="13"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
@@ -9449,40 +9378,40 @@
       <c r="AM92" s="6">
         <v>80</v>
       </c>
-      <c r="AN92" s="9">
+      <c r="AN92" s="10">
         <v>130</v>
       </c>
       <c r="AO92" s="6"/>
     </row>
-    <row r="93" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>105</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -9493,7 +9422,7 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
@@ -9507,7 +9436,7 @@
       <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
-      <c r="AG93" s="10"/>
+      <c r="AG93" s="13"/>
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
@@ -9516,40 +9445,40 @@
       <c r="AM93" s="6">
         <v>82</v>
       </c>
-      <c r="AN93" s="9">
+      <c r="AN93" s="10">
         <v>76</v>
       </c>
       <c r="AO93" s="6"/>
     </row>
-    <row r="94" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>106</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -9560,7 +9489,7 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -9574,7 +9503,7 @@
       <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
       <c r="AF94" s="6"/>
-      <c r="AG94" s="10"/>
+      <c r="AG94" s="13"/>
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
       <c r="AJ94" s="6"/>
@@ -9583,40 +9512,40 @@
       <c r="AM94" s="6">
         <v>83</v>
       </c>
-      <c r="AN94" s="9">
+      <c r="AN94" s="10">
         <v>77</v>
       </c>
       <c r="AO94" s="6"/>
     </row>
-    <row r="95" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>107</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -9627,7 +9556,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
@@ -9641,7 +9570,7 @@
       <c r="AD95" s="6"/>
       <c r="AE95" s="6"/>
       <c r="AF95" s="6"/>
-      <c r="AG95" s="10"/>
+      <c r="AG95" s="13"/>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
@@ -9650,55 +9579,55 @@
       <c r="AM95" s="6">
         <v>84</v>
       </c>
-      <c r="AN95" s="9">
+      <c r="AN95" s="10">
         <v>75</v>
       </c>
       <c r="AO95" s="6"/>
     </row>
-    <row r="96" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>108</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="P96" s="11" t="s">
-        <v>371</v>
+        <v>375</v>
+      </c>
+      <c r="P96" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
@@ -9712,7 +9641,7 @@
       <c r="AD96" s="6"/>
       <c r="AE96" s="6"/>
       <c r="AF96" s="6"/>
-      <c r="AG96" s="10"/>
+      <c r="AG96" s="13"/>
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
@@ -9722,59 +9651,59 @@
         <v>85</v>
       </c>
       <c r="AN96" s="8" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AO96" s="6"/>
     </row>
-    <row r="97" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>109</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
       <c r="Y97" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
@@ -9783,7 +9712,7 @@
       <c r="AD97" s="6"/>
       <c r="AE97" s="6"/>
       <c r="AF97" s="6"/>
-      <c r="AG97" s="10"/>
+      <c r="AG97" s="13"/>
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
       <c r="AJ97" s="6"/>
@@ -9792,36 +9721,36 @@
       <c r="AM97" s="6">
         <v>86</v>
       </c>
-      <c r="AN97" s="9"/>
+      <c r="AN97" s="10"/>
       <c r="AO97" s="6"/>
     </row>
-    <row r="98" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>110</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -9832,7 +9761,7 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
@@ -9846,7 +9775,7 @@
       <c r="AD98" s="6"/>
       <c r="AE98" s="6"/>
       <c r="AF98" s="6"/>
-      <c r="AG98" s="10"/>
+      <c r="AG98" s="13"/>
       <c r="AH98" s="6"/>
       <c r="AI98" s="6"/>
       <c r="AJ98" s="6"/>
@@ -9855,12 +9784,12 @@
       <c r="AM98" s="6">
         <v>521</v>
       </c>
-      <c r="AN98" s="9"/>
+      <c r="AN98" s="10"/>
       <c r="AO98" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AO98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>